--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2424967.553482124</v>
+        <v>-2426826.608764483</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4728206.377206865</v>
+        <v>4728206.377206864</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>318.4716714268618</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>301.0107215343888</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E11" t="n">
-        <v>317.668199835643</v>
+        <v>317.6681998356431</v>
       </c>
       <c r="F11" t="n">
         <v>342.6138755050927</v>
       </c>
       <c r="G11" t="n">
-        <v>61.35903503714803</v>
+        <v>348.305269075243</v>
       </c>
       <c r="H11" t="n">
-        <v>247.1997591548758</v>
+        <v>247.1997591548759</v>
       </c>
       <c r="I11" t="n">
-        <v>40.76113535209358</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>146.8599114426838</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>186.8646588149559</v>
+        <v>99.5583485608406</v>
       </c>
       <c r="V11" t="n">
-        <v>263.4900882335161</v>
+        <v>263.4900882335162</v>
       </c>
       <c r="W11" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.9757684194348</v>
+        <v>321.9757684194349</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H12" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I12" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S12" t="n">
         <v>144.499048576932</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.5698099453185</v>
+        <v>115.5698099453186</v>
       </c>
       <c r="C13" t="n">
-        <v>102.8045178054582</v>
+        <v>102.9846508620091</v>
       </c>
       <c r="D13" t="n">
-        <v>84.35330278159357</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.17179240995038</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>81.15887778631246</v>
+        <v>81.15887778631252</v>
       </c>
       <c r="G13" t="n">
-        <v>102.5018485138553</v>
+        <v>102.5018485138554</v>
       </c>
       <c r="H13" t="n">
-        <v>87.05620704710246</v>
+        <v>87.0562070471025</v>
       </c>
       <c r="I13" t="n">
-        <v>54.2902529523366</v>
+        <v>54.29025295233665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.86261053062142</v>
+        <v>57.86261053062147</v>
       </c>
       <c r="S13" t="n">
-        <v>138.3718506593841</v>
+        <v>138.3718506593842</v>
       </c>
       <c r="T13" t="n">
         <v>158.4409511393646</v>
       </c>
       <c r="U13" t="n">
-        <v>221.9899339958002</v>
+        <v>221.9899339958003</v>
       </c>
       <c r="V13" t="n">
-        <v>187.8754730872092</v>
+        <v>187.8754730872093</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>159.2199600980504</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>161.4474851524184</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.322483115476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>301.0107215343888</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>290.4208713840642</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>348.305269075243</v>
       </c>
       <c r="H14" t="n">
-        <v>81.79207265238378</v>
+        <v>116.3547471213864</v>
       </c>
       <c r="I14" t="n">
-        <v>40.76113535209356</v>
+        <v>40.76113535209355</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U14" t="n">
-        <v>186.8646588149559</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>284.9787984807942</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>305.4689304418503</v>
@@ -1701,10 +1701,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H15" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I15" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S15" t="n">
         <v>144.499048576932</v>
@@ -1777,13 +1777,13 @@
         <v>81.15887778631246</v>
       </c>
       <c r="G16" t="n">
-        <v>27.65954324781686</v>
+        <v>102.5018485138553</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>87.05620704710246</v>
       </c>
       <c r="I16" t="n">
-        <v>54.2902529523366</v>
+        <v>54.29025295233659</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.86261053062142</v>
+        <v>57.86261053062141</v>
       </c>
       <c r="S16" t="n">
         <v>138.3718506593841</v>
@@ -1819,13 +1819,13 @@
         <v>158.4409511393645</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>60.36231578683167</v>
       </c>
       <c r="V16" t="n">
         <v>187.8754730872092</v>
       </c>
       <c r="W16" t="n">
-        <v>222.2608280999722</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>161.4474851524184</v>
@@ -1850,13 +1850,13 @@
         <v>210.0565382037128</v>
       </c>
       <c r="E17" t="n">
-        <v>136.8916175913702</v>
+        <v>237.3038666552916</v>
       </c>
       <c r="F17" t="n">
-        <v>262.2495423247412</v>
+        <v>262.2495423247413</v>
       </c>
       <c r="G17" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H17" t="n">
         <v>166.8354259745244</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362185064</v>
       </c>
       <c r="T17" t="n">
-        <v>66.49557826233233</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>106.5003256346045</v>
+        <v>72.5836548330151</v>
       </c>
       <c r="V17" t="n">
-        <v>183.1257550531647</v>
+        <v>183.1257550531648</v>
       </c>
       <c r="W17" t="n">
-        <v>204.6144653004428</v>
+        <v>204.6144653004429</v>
       </c>
       <c r="X17" t="n">
-        <v>225.1045972614988</v>
+        <v>225.1045972614989</v>
       </c>
       <c r="Y17" t="n">
         <v>241.6114352390834</v>
@@ -1938,10 +1938,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H18" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I18" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S18" t="n">
         <v>144.499048576932</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.2054767649671</v>
+        <v>35.20547676496716</v>
       </c>
       <c r="C19" t="n">
-        <v>22.62031768165764</v>
+        <v>22.6203176816577</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>3.988969601242218</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>1.807459229599033</v>
       </c>
       <c r="F19" t="n">
-        <v>67.52126021570272</v>
+        <v>0.7945446059611072</v>
       </c>
       <c r="G19" t="n">
-        <v>22.13751533350388</v>
+        <v>22.13751533350394</v>
       </c>
       <c r="H19" t="n">
-        <v>6.691873866751047</v>
+        <v>6.691873866751102</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.613065132155967</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S19" t="n">
-        <v>58.00751747903271</v>
+        <v>58.00751747903276</v>
       </c>
       <c r="T19" t="n">
-        <v>78.07661795901313</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U19" t="n">
         <v>141.6256008154488</v>
       </c>
       <c r="V19" t="n">
-        <v>107.5111399068578</v>
+        <v>107.5111399068579</v>
       </c>
       <c r="W19" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196209</v>
       </c>
       <c r="X19" t="n">
-        <v>81.08315197206696</v>
+        <v>163.6985250993826</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.9581499351246</v>
+        <v>73.95814993512465</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>137.6950891825888</v>
+        <v>238.1073382465104</v>
       </c>
       <c r="C20" t="n">
-        <v>220.6463883540374</v>
+        <v>120.2341392901146</v>
       </c>
       <c r="D20" t="n">
         <v>210.0565382037128</v>
@@ -2090,10 +2090,10 @@
         <v>237.3038666552916</v>
       </c>
       <c r="F20" t="n">
-        <v>262.2495423247412</v>
+        <v>262.2495423247413</v>
       </c>
       <c r="G20" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H20" t="n">
         <v>166.8354259745244</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362185064</v>
       </c>
       <c r="T20" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233239</v>
       </c>
       <c r="U20" t="n">
         <v>106.5003256346045</v>
       </c>
       <c r="V20" t="n">
-        <v>183.1257550531647</v>
+        <v>183.1257550531648</v>
       </c>
       <c r="W20" t="n">
-        <v>204.6144653004428</v>
+        <v>204.6144653004429</v>
       </c>
       <c r="X20" t="n">
-        <v>225.1045972614988</v>
+        <v>225.1045972614989</v>
       </c>
       <c r="Y20" t="n">
         <v>241.6114352390834</v>
@@ -2175,10 +2175,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H21" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I21" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S21" t="n">
         <v>144.499048576932</v>
@@ -2236,31 +2236,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>35.2054767649671</v>
+        <v>35.20547676496716</v>
       </c>
       <c r="C22" t="n">
-        <v>22.62031768165764</v>
+        <v>22.6203176816577</v>
       </c>
       <c r="D22" t="n">
-        <v>3.988969601242161</v>
+        <v>3.988969601242218</v>
       </c>
       <c r="E22" t="n">
-        <v>1.807459229598976</v>
+        <v>1.807459229599033</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7945446059610504</v>
+        <v>0.7945446059611072</v>
       </c>
       <c r="G22" t="n">
-        <v>22.13751533350388</v>
+        <v>22.13751533350394</v>
       </c>
       <c r="H22" t="n">
-        <v>6.691873866751047</v>
+        <v>66.80552434433683</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.613065132155967</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>202.6340208960029</v>
       </c>
       <c r="T22" t="n">
-        <v>78.07661795901313</v>
+        <v>222.7031213759833</v>
       </c>
       <c r="U22" t="n">
-        <v>230.8540390749207</v>
+        <v>141.6256008154488</v>
       </c>
       <c r="V22" t="n">
-        <v>107.5111399068578</v>
+        <v>107.5111399068579</v>
       </c>
       <c r="W22" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196209</v>
       </c>
       <c r="X22" t="n">
-        <v>81.08315197206696</v>
+        <v>81.08315197206701</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.9581499351246</v>
+        <v>73.95814993512465</v>
       </c>
     </row>
     <row r="23">
@@ -2327,10 +2327,10 @@
         <v>237.3038666552916</v>
       </c>
       <c r="F23" t="n">
-        <v>262.2495423247412</v>
+        <v>262.2495423247413</v>
       </c>
       <c r="G23" t="n">
-        <v>267.9409358948915</v>
+        <v>267.9409358948916</v>
       </c>
       <c r="H23" t="n">
         <v>166.8354259745244</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.062958362185022</v>
+        <v>2.062958362185064</v>
       </c>
       <c r="T23" t="n">
-        <v>66.49557826233233</v>
+        <v>66.49557826233239</v>
       </c>
       <c r="U23" t="n">
         <v>106.5003256346045</v>
       </c>
       <c r="V23" t="n">
-        <v>183.1257550531647</v>
+        <v>183.1257550531648</v>
       </c>
       <c r="W23" t="n">
-        <v>204.6144653004428</v>
+        <v>204.6144653004429</v>
       </c>
       <c r="X23" t="n">
-        <v>225.1045972614988</v>
+        <v>225.1045972614989</v>
       </c>
       <c r="Y23" t="n">
         <v>241.6114352390834</v>
@@ -2412,10 +2412,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H24" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I24" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S24" t="n">
         <v>144.499048576932</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.2054767649671</v>
+        <v>35.20547676496716</v>
       </c>
       <c r="C25" t="n">
-        <v>22.62031768165764</v>
+        <v>22.6203176816577</v>
       </c>
       <c r="D25" t="n">
-        <v>3.988969601242161</v>
+        <v>3.988969601242218</v>
       </c>
       <c r="E25" t="n">
-        <v>1.807459229598976</v>
+        <v>1.807459229599033</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7945446059610504</v>
+        <v>0.7945446059611072</v>
       </c>
       <c r="G25" t="n">
-        <v>111.3659535929758</v>
+        <v>22.13751533350394</v>
       </c>
       <c r="H25" t="n">
-        <v>6.691873866751047</v>
+        <v>6.691873866751102</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>58.00751747903271</v>
+        <v>58.00751747903276</v>
       </c>
       <c r="T25" t="n">
-        <v>222.7031213759833</v>
+        <v>78.07661795901318</v>
       </c>
       <c r="U25" t="n">
-        <v>141.6256008154488</v>
+        <v>286.252104232419</v>
       </c>
       <c r="V25" t="n">
-        <v>107.5111399068578</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>141.8964949196208</v>
+        <v>141.8964949196209</v>
       </c>
       <c r="X25" t="n">
-        <v>81.08315197206696</v>
+        <v>147.8098675818087</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.9581499351246</v>
+        <v>73.95814993512465</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I26" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.32512859880377</v>
+        <v>66.3251285988038</v>
       </c>
       <c r="T26" t="n">
         <v>130.7577484989511</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.46764700158586</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C28" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D28" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E28" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F28" t="n">
-        <v>65.05671484257981</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G28" t="n">
-        <v>86.39968557012266</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H28" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I28" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76044758688879</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S28" t="n">
         <v>122.2696877156515</v>
@@ -2792,7 +2792,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C29" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D29" t="n">
         <v>274.3187084403315</v>
@@ -2810,7 +2810,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I29" t="n">
-        <v>24.65897240836091</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.32512859880376</v>
+        <v>66.32512859880381</v>
       </c>
       <c r="T29" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U29" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V29" t="n">
         <v>247.3879252897835</v>
@@ -2886,10 +2886,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H30" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I30" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S30" t="n">
         <v>144.499048576932</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.46764700158586</v>
+        <v>99.4676470015859</v>
       </c>
       <c r="C31" t="n">
-        <v>86.8824879182764</v>
+        <v>86.88248791827644</v>
       </c>
       <c r="D31" t="n">
-        <v>68.25113983786092</v>
+        <v>68.25113983786096</v>
       </c>
       <c r="E31" t="n">
-        <v>66.06962946621773</v>
+        <v>66.06962946621778</v>
       </c>
       <c r="F31" t="n">
-        <v>65.05671484257998</v>
+        <v>65.05671484257985</v>
       </c>
       <c r="G31" t="n">
-        <v>86.39968557012266</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H31" t="n">
-        <v>70.95404410336981</v>
+        <v>70.95404410336985</v>
       </c>
       <c r="I31" t="n">
-        <v>38.18809000860395</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76044758688877</v>
+        <v>41.76044758688881</v>
       </c>
       <c r="S31" t="n">
         <v>122.2696877156515</v>
@@ -3013,7 +3013,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X31" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y31" t="n">
         <v>138.2203201717434</v>
@@ -3029,25 +3029,25 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C32" t="n">
-        <v>284.9085585906561</v>
+        <v>284.9085585906562</v>
       </c>
       <c r="D32" t="n">
-        <v>274.3187084403315</v>
+        <v>274.3187084403316</v>
       </c>
       <c r="E32" t="n">
         <v>301.5660368919104</v>
       </c>
       <c r="F32" t="n">
-        <v>326.51171256136</v>
+        <v>326.5117125613601</v>
       </c>
       <c r="G32" t="n">
-        <v>332.2031061315103</v>
+        <v>332.2031061315104</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0975962111431</v>
+        <v>231.0975962111432</v>
       </c>
       <c r="I32" t="n">
-        <v>24.65897240836094</v>
+        <v>24.65897240836095</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.3251285988038</v>
+        <v>66.32512859880383</v>
       </c>
       <c r="T32" t="n">
-        <v>130.7577484989511</v>
+        <v>130.7577484989512</v>
       </c>
       <c r="U32" t="n">
-        <v>170.7624958712232</v>
+        <v>170.7624958712233</v>
       </c>
       <c r="V32" t="n">
         <v>247.3879252897835</v>
@@ -3092,7 +3092,7 @@
         <v>268.8766355370616</v>
       </c>
       <c r="X32" t="n">
-        <v>289.3667674981176</v>
+        <v>289.3667674981177</v>
       </c>
       <c r="Y32" t="n">
         <v>305.8736054757022</v>
@@ -3123,10 +3123,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H33" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I33" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S33" t="n">
         <v>144.499048576932</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.46764700158589</v>
+        <v>99.46764700158592</v>
       </c>
       <c r="C34" t="n">
-        <v>86.88248791827642</v>
+        <v>86.88248791827645</v>
       </c>
       <c r="D34" t="n">
-        <v>68.25113983786095</v>
+        <v>68.25113983786098</v>
       </c>
       <c r="E34" t="n">
-        <v>66.06962946621776</v>
+        <v>66.06962946621779</v>
       </c>
       <c r="F34" t="n">
-        <v>65.05671484257984</v>
+        <v>65.05671484257986</v>
       </c>
       <c r="G34" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012271</v>
       </c>
       <c r="H34" t="n">
-        <v>70.95404410336984</v>
+        <v>70.95404410336987</v>
       </c>
       <c r="I34" t="n">
-        <v>38.18809000860398</v>
+        <v>38.18809000860399</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7604475868888</v>
+        <v>41.76044758688882</v>
       </c>
       <c r="S34" t="n">
         <v>122.2696877156515</v>
@@ -3250,7 +3250,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X34" t="n">
-        <v>145.3453222086857</v>
+        <v>145.3453222086858</v>
       </c>
       <c r="Y34" t="n">
         <v>138.2203201717434</v>
@@ -3284,7 +3284,7 @@
         <v>231.0975962111431</v>
       </c>
       <c r="I35" t="n">
-        <v>24.65897240836092</v>
+        <v>24.6589724083609</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.32512859880379</v>
+        <v>66.32512859880377</v>
       </c>
       <c r="T35" t="n">
         <v>130.7577484989511</v>
@@ -3360,10 +3360,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H36" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I36" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S36" t="n">
         <v>144.499048576932</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.46764700158587</v>
+        <v>99.46764700158586</v>
       </c>
       <c r="C37" t="n">
-        <v>86.88248791827641</v>
+        <v>86.8824879182764</v>
       </c>
       <c r="D37" t="n">
-        <v>68.25113983786093</v>
+        <v>68.25113983786092</v>
       </c>
       <c r="E37" t="n">
-        <v>66.06962946621775</v>
+        <v>66.06962946621773</v>
       </c>
       <c r="F37" t="n">
-        <v>65.05671484257982</v>
+        <v>65.05671484257981</v>
       </c>
       <c r="G37" t="n">
-        <v>86.39968557012267</v>
+        <v>86.39968557012266</v>
       </c>
       <c r="H37" t="n">
-        <v>70.95404410336982</v>
+        <v>70.95404410336981</v>
       </c>
       <c r="I37" t="n">
-        <v>38.18809000860396</v>
+        <v>38.18809000860394</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.76044758688879</v>
+        <v>41.76044758688876</v>
       </c>
       <c r="S37" t="n">
         <v>122.2696877156515</v>
@@ -3503,7 +3503,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C38" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D38" t="n">
         <v>274.3187084403315</v>
@@ -3515,13 +3515,13 @@
         <v>326.51171256136</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2031061315104</v>
+        <v>332.2031061315103</v>
       </c>
       <c r="H38" t="n">
-        <v>231.0975962111432</v>
+        <v>231.0975962111431</v>
       </c>
       <c r="I38" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836091</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880379</v>
       </c>
       <c r="T38" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U38" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V38" t="n">
         <v>247.3879252897835</v>
@@ -3597,10 +3597,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H39" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I39" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S39" t="n">
         <v>144.499048576932</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158587</v>
       </c>
       <c r="C40" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827641</v>
       </c>
       <c r="D40" t="n">
-        <v>68.25113983786096</v>
+        <v>68.25113983786093</v>
       </c>
       <c r="E40" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621775</v>
       </c>
       <c r="F40" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257982</v>
       </c>
       <c r="G40" t="n">
-        <v>86.3996855701227</v>
+        <v>86.39968557012267</v>
       </c>
       <c r="H40" t="n">
-        <v>70.95404410336985</v>
+        <v>70.95404410336982</v>
       </c>
       <c r="I40" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860395</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688877</v>
       </c>
       <c r="S40" t="n">
         <v>122.2696877156515</v>
@@ -3724,7 +3724,7 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X40" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y40" t="n">
         <v>138.2203201717434</v>
@@ -3758,7 +3758,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I41" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836094</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H42" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I42" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S42" t="n">
         <v>144.499048576932</v>
@@ -3910,13 +3910,13 @@
         <v>65.05671484257985</v>
       </c>
       <c r="G43" t="n">
-        <v>86.39968557012268</v>
+        <v>86.3996855701227</v>
       </c>
       <c r="H43" t="n">
         <v>70.95404410336985</v>
       </c>
       <c r="I43" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860398</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.76044758688882</v>
+        <v>41.7604475868888</v>
       </c>
       <c r="S43" t="n">
         <v>122.2696877156515</v>
@@ -3977,7 +3977,7 @@
         <v>302.3695084831292</v>
       </c>
       <c r="C44" t="n">
-        <v>284.9085585906562</v>
+        <v>284.9085585906561</v>
       </c>
       <c r="D44" t="n">
         <v>274.3187084403315</v>
@@ -3995,7 +3995,7 @@
         <v>231.0975962111432</v>
       </c>
       <c r="I44" t="n">
-        <v>24.65897240836095</v>
+        <v>24.65897240836088</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.32512859880381</v>
+        <v>66.32512859880376</v>
       </c>
       <c r="T44" t="n">
         <v>130.7577484989511</v>
       </c>
       <c r="U44" t="n">
-        <v>170.7624958712233</v>
+        <v>170.7624958712232</v>
       </c>
       <c r="V44" t="n">
         <v>247.3879252897835</v>
@@ -4043,7 +4043,7 @@
         <v>289.3667674981176</v>
       </c>
       <c r="Y44" t="n">
-        <v>305.8736054757022</v>
+        <v>305.8736054757021</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>135.8800036009593</v>
       </c>
       <c r="H45" t="n">
-        <v>98.10098430633197</v>
+        <v>98.10098430633195</v>
       </c>
       <c r="I45" t="n">
-        <v>39.00811765986588</v>
+        <v>39.00811765986587</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.291614910404846</v>
+        <v>9.291614910404832</v>
       </c>
       <c r="S45" t="n">
         <v>144.499048576932</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.4676470015859</v>
+        <v>99.46764700158585</v>
       </c>
       <c r="C46" t="n">
-        <v>86.88248791827644</v>
+        <v>86.88248791827638</v>
       </c>
       <c r="D46" t="n">
-        <v>68.25113983786096</v>
+        <v>68.2511398378609</v>
       </c>
       <c r="E46" t="n">
-        <v>66.06962946621778</v>
+        <v>66.06962946621772</v>
       </c>
       <c r="F46" t="n">
-        <v>65.05671484257985</v>
+        <v>65.05671484257979</v>
       </c>
       <c r="G46" t="n">
-        <v>86.39968557012268</v>
+        <v>86.39968557012263</v>
       </c>
       <c r="H46" t="n">
-        <v>70.95404410336985</v>
+        <v>70.9540441033698</v>
       </c>
       <c r="I46" t="n">
-        <v>38.18809000860399</v>
+        <v>38.18809000860393</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.76044758688882</v>
+        <v>41.76044758688875</v>
       </c>
       <c r="S46" t="n">
         <v>122.2696877156515</v>
@@ -4189,7 +4189,7 @@
         <v>142.3387881956319</v>
       </c>
       <c r="U46" t="n">
-        <v>205.8877710520676</v>
+        <v>205.8877710520675</v>
       </c>
       <c r="V46" t="n">
         <v>171.7733101434766</v>
@@ -4198,10 +4198,10 @@
         <v>206.1586651562396</v>
       </c>
       <c r="X46" t="n">
-        <v>145.3453222086858</v>
+        <v>145.3453222086857</v>
       </c>
       <c r="Y46" t="n">
-        <v>138.2203201717434</v>
+        <v>138.2203201717433</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1072.000435808305</v>
+        <v>1918.077902075431</v>
       </c>
       <c r="C11" t="n">
-        <v>1072.000435808305</v>
+        <v>1614.026668202311</v>
       </c>
       <c r="D11" t="n">
-        <v>1072.000435808305</v>
+        <v>1320.672252662852</v>
       </c>
       <c r="E11" t="n">
-        <v>751.1234662773527</v>
+        <v>999.7952831318997</v>
       </c>
       <c r="F11" t="n">
-        <v>405.0488445550369</v>
+        <v>653.7206614095838</v>
       </c>
       <c r="G11" t="n">
-        <v>343.0700212851904</v>
+        <v>301.897157293177</v>
       </c>
       <c r="H11" t="n">
-        <v>93.3732948661242</v>
+        <v>52.20043087411048</v>
       </c>
       <c r="I11" t="n">
         <v>52.20043087411048</v>
@@ -5045,16 +5045,16 @@
         <v>717.6798929816109</v>
       </c>
       <c r="L11" t="n">
-        <v>1094.709921887336</v>
+        <v>1325.089810067189</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.158637321493</v>
+        <v>1660.73935841126</v>
       </c>
       <c r="N11" t="n">
-        <v>1598.225140049873</v>
+        <v>1916.805861139641</v>
       </c>
       <c r="O11" t="n">
-        <v>1826.686216137698</v>
+        <v>2145.266937227466</v>
       </c>
       <c r="P11" t="n">
         <v>2305.752179175668</v>
@@ -5069,22 +5069,22 @@
         <v>2610.021543705524</v>
       </c>
       <c r="T11" t="n">
-        <v>2461.678198813924</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="U11" t="n">
-        <v>2272.926018192757</v>
+        <v>2509.45755526023</v>
       </c>
       <c r="V11" t="n">
-        <v>2006.774413916478</v>
+        <v>2243.305950983951</v>
       </c>
       <c r="W11" t="n">
-        <v>1718.917041713655</v>
+        <v>2243.305950983951</v>
       </c>
       <c r="X11" t="n">
-        <v>1718.917041713655</v>
+        <v>2243.305950983951</v>
       </c>
       <c r="Y11" t="n">
-        <v>1393.688992805135</v>
+        <v>1918.077902075431</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>327.9470021540671</v>
       </c>
       <c r="G12" t="n">
-        <v>190.6944732642096</v>
+        <v>190.6944732642094</v>
       </c>
       <c r="H12" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448012</v>
       </c>
       <c r="I12" t="n">
         <v>52.20043087411048</v>
@@ -5124,13 +5124,13 @@
         <v>547.668195436525</v>
       </c>
       <c r="L12" t="n">
-        <v>820.4280748539236</v>
+        <v>1092.222207051634</v>
       </c>
       <c r="M12" t="n">
-        <v>1046.828129983181</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N12" t="n">
-        <v>1692.808462050298</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O12" t="n">
         <v>1896.363215178962</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>652.5406321838166</v>
+        <v>484.5154179060461</v>
       </c>
       <c r="C13" t="n">
-        <v>548.697684905576</v>
+        <v>380.4905180454308</v>
       </c>
       <c r="D13" t="n">
-        <v>463.492328560532</v>
+        <v>380.4905180454308</v>
       </c>
       <c r="E13" t="n">
-        <v>380.4905180454306</v>
+        <v>380.4905180454308</v>
       </c>
       <c r="F13" t="n">
-        <v>298.5118536148119</v>
+        <v>298.5118536148121</v>
       </c>
       <c r="G13" t="n">
-        <v>194.9746328937459</v>
+        <v>194.974632893746</v>
       </c>
       <c r="H13" t="n">
         <v>107.0390702199051</v>
@@ -5197,16 +5197,16 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J13" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275285</v>
       </c>
       <c r="K13" t="n">
-        <v>291.9708056845549</v>
+        <v>291.9708056845548</v>
       </c>
       <c r="L13" t="n">
-        <v>563.4959032733534</v>
+        <v>563.4959032733533</v>
       </c>
       <c r="M13" t="n">
-        <v>856.7118258711466</v>
+        <v>856.7118258711465</v>
       </c>
       <c r="N13" t="n">
         <v>1149.90307628869</v>
@@ -5230,19 +5230,19 @@
         <v>1339.164571723013</v>
       </c>
       <c r="U13" t="n">
-        <v>1114.932315161599</v>
+        <v>1114.932315161598</v>
       </c>
       <c r="V13" t="n">
-        <v>925.159110023003</v>
+        <v>925.1591100230031</v>
       </c>
       <c r="W13" t="n">
-        <v>925.159110023003</v>
+        <v>764.3308674997198</v>
       </c>
       <c r="X13" t="n">
-        <v>925.159110023003</v>
+        <v>601.2525996689941</v>
       </c>
       <c r="Y13" t="n">
-        <v>769.2778139467646</v>
+        <v>601.2525996689941</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1177.940909782396</v>
+        <v>1506.207117714787</v>
       </c>
       <c r="C14" t="n">
-        <v>873.8896759092763</v>
+        <v>1202.155883841667</v>
       </c>
       <c r="D14" t="n">
-        <v>873.8896759092763</v>
+        <v>908.8014683022077</v>
       </c>
       <c r="E14" t="n">
-        <v>873.8896759092763</v>
+        <v>908.8014683022077</v>
       </c>
       <c r="F14" t="n">
-        <v>527.8150541869604</v>
+        <v>562.7268465798918</v>
       </c>
       <c r="G14" t="n">
-        <v>175.9915500705523</v>
+        <v>210.9033424634848</v>
       </c>
       <c r="H14" t="n">
-        <v>93.3732948661242</v>
+        <v>93.37329486612417</v>
       </c>
       <c r="I14" t="n">
         <v>52.20043087411048</v>
@@ -5291,13 +5291,13 @@
         <v>1828.605028229726</v>
       </c>
       <c r="O14" t="n">
-        <v>2377.191315222786</v>
+        <v>2057.066104317551</v>
       </c>
       <c r="P14" t="n">
-        <v>2537.676557170988</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q14" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R14" t="n">
         <v>2610.021543705524</v>
@@ -5306,22 +5306,22 @@
         <v>2610.021543705524</v>
       </c>
       <c r="T14" t="n">
-        <v>2610.021543705524</v>
+        <v>2461.678198813925</v>
       </c>
       <c r="U14" t="n">
-        <v>2421.269363084357</v>
+        <v>2461.678198813925</v>
       </c>
       <c r="V14" t="n">
-        <v>2421.269363084357</v>
+        <v>2461.678198813925</v>
       </c>
       <c r="W14" t="n">
-        <v>2133.411990881535</v>
+        <v>2461.678198813925</v>
       </c>
       <c r="X14" t="n">
-        <v>1824.857515687747</v>
+        <v>2153.123723620137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1499.629466779227</v>
+        <v>1827.895674711617</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>190.6944732642093</v>
       </c>
       <c r="H15" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448005</v>
       </c>
       <c r="I15" t="n">
         <v>52.20043087411048</v>
@@ -5358,22 +5358,22 @@
         <v>188.3485431278349</v>
       </c>
       <c r="K15" t="n">
-        <v>547.668195436525</v>
+        <v>285.8476107940723</v>
       </c>
       <c r="L15" t="n">
-        <v>725.0902652012096</v>
+        <v>463.2696805587569</v>
       </c>
       <c r="M15" t="n">
-        <v>1362.106270936719</v>
+        <v>1109.250012625874</v>
       </c>
       <c r="N15" t="n">
-        <v>2008.086603003836</v>
+        <v>1755.230344692991</v>
       </c>
       <c r="O15" t="n">
-        <v>2211.6413561325</v>
+        <v>2348.708793905617</v>
       </c>
       <c r="P15" t="n">
-        <v>2355.67892497901</v>
+        <v>2492.746362752127</v>
       </c>
       <c r="Q15" t="n">
         <v>2610.021543705524</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>489.1887339448369</v>
+        <v>652.7225847661911</v>
       </c>
       <c r="C16" t="n">
-        <v>385.1638340842218</v>
+        <v>548.6976849055759</v>
       </c>
       <c r="D16" t="n">
-        <v>299.9584777391777</v>
+        <v>463.4923285605319</v>
       </c>
       <c r="E16" t="n">
-        <v>216.9566672240763</v>
+        <v>380.4905180454305</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9780027934576</v>
+        <v>298.5118536148119</v>
       </c>
       <c r="G16" t="n">
-        <v>107.039070219905</v>
+        <v>194.9746328937459</v>
       </c>
       <c r="H16" t="n">
         <v>107.039070219905</v>
@@ -5434,13 +5434,13 @@
         <v>52.20043087411048</v>
       </c>
       <c r="J16" t="n">
-        <v>109.2730449275286</v>
+        <v>109.2730449275287</v>
       </c>
       <c r="K16" t="n">
         <v>291.970805684555</v>
       </c>
       <c r="L16" t="n">
-        <v>563.4959032733536</v>
+        <v>563.4959032733535</v>
       </c>
       <c r="M16" t="n">
         <v>856.7118258711466</v>
@@ -5449,7 +5449,7 @@
         <v>1149.90307628869</v>
       </c>
       <c r="O16" t="n">
-        <v>1409.552953254354</v>
+        <v>1409.552953254355</v>
       </c>
       <c r="P16" t="n">
         <v>1617.389630818505</v>
@@ -5467,19 +5467,19 @@
         <v>1339.164571723013</v>
       </c>
       <c r="U16" t="n">
-        <v>1339.164571723013</v>
+        <v>1278.192535574698</v>
       </c>
       <c r="V16" t="n">
-        <v>1149.391366584418</v>
+        <v>1088.419330436103</v>
       </c>
       <c r="W16" t="n">
-        <v>924.885479614749</v>
+        <v>1088.419330436103</v>
       </c>
       <c r="X16" t="n">
-        <v>761.8072117840234</v>
+        <v>925.3410626053775</v>
       </c>
       <c r="Y16" t="n">
-        <v>605.925915707785</v>
+        <v>769.4597665291391</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1329.594823140048</v>
+        <v>1431.021337346029</v>
       </c>
       <c r="C17" t="n">
-        <v>1106.719683388495</v>
+        <v>1208.146197594476</v>
       </c>
       <c r="D17" t="n">
-        <v>894.5413619706028</v>
+        <v>995.9678761765841</v>
       </c>
       <c r="E17" t="n">
-        <v>756.2670007671985</v>
+        <v>756.2670007671986</v>
       </c>
       <c r="F17" t="n">
-        <v>491.3684731664497</v>
+        <v>491.3684731664499</v>
       </c>
       <c r="G17" t="n">
-        <v>220.7210631716098</v>
+        <v>220.7210631716099</v>
       </c>
       <c r="H17" t="n">
         <v>52.20043087411048</v>
@@ -5516,25 +5516,25 @@
         <v>102.7984511139569</v>
       </c>
       <c r="K17" t="n">
-        <v>229.3702855158047</v>
+        <v>550.274243961258</v>
       </c>
       <c r="L17" t="n">
-        <v>836.7802026013826</v>
+        <v>1157.684161046836</v>
       </c>
       <c r="M17" t="n">
-        <v>1084.228918035539</v>
+        <v>1803.664493113953</v>
       </c>
       <c r="N17" t="n">
-        <v>1340.29542076392</v>
+        <v>2059.730995842334</v>
       </c>
       <c r="O17" t="n">
-        <v>1826.686216137698</v>
+        <v>2288.192071930159</v>
       </c>
       <c r="P17" t="n">
-        <v>2305.752179175668</v>
+        <v>2448.677313878361</v>
       </c>
       <c r="Q17" t="n">
-        <v>2588.28900646351</v>
+        <v>2610.021543705524</v>
       </c>
       <c r="R17" t="n">
         <v>2610.021543705524</v>
@@ -5543,22 +5543,22 @@
         <v>2607.937747380085</v>
       </c>
       <c r="T17" t="n">
-        <v>2540.770496610052</v>
+        <v>2607.937747380085</v>
       </c>
       <c r="U17" t="n">
-        <v>2433.194410110452</v>
+        <v>2534.620924316434</v>
       </c>
       <c r="V17" t="n">
-        <v>2248.21889995574</v>
+        <v>2349.645414161721</v>
       </c>
       <c r="W17" t="n">
-        <v>2041.537621874484</v>
+        <v>2142.964136080466</v>
       </c>
       <c r="X17" t="n">
-        <v>1814.159240802263</v>
+        <v>1915.585755008245</v>
       </c>
       <c r="Y17" t="n">
-        <v>1570.10728601531</v>
+        <v>1671.533800221292</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>957.1064540750159</v>
+        <v>957.1064540750158</v>
       </c>
       <c r="C18" t="n">
-        <v>782.6534247938889</v>
+        <v>782.6534247938888</v>
       </c>
       <c r="D18" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E18" t="n">
-        <v>474.4815601271822</v>
+        <v>474.4815601271821</v>
       </c>
       <c r="F18" t="n">
-        <v>327.9470021540672</v>
+        <v>327.9470021540671</v>
       </c>
       <c r="G18" t="n">
         <v>190.6944732642093</v>
       </c>
       <c r="H18" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448005</v>
       </c>
       <c r="I18" t="n">
         <v>52.20043087411048</v>
@@ -5601,10 +5601,10 @@
         <v>1092.222207051634</v>
       </c>
       <c r="M18" t="n">
-        <v>1446.007626220411</v>
+        <v>1318.622262180892</v>
       </c>
       <c r="N18" t="n">
-        <v>1692.808462050298</v>
+        <v>1565.423098010779</v>
       </c>
       <c r="O18" t="n">
         <v>1896.363215178962</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>470.4028579068346</v>
+        <v>117.5072444608489</v>
       </c>
       <c r="C19" t="n">
-        <v>447.5540521677864</v>
+        <v>94.65843872180075</v>
       </c>
       <c r="D19" t="n">
-        <v>297.4374127554507</v>
+        <v>90.62917649832376</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5243191730576</v>
+        <v>88.80346010478938</v>
       </c>
       <c r="F19" t="n">
-        <v>81.32102602588314</v>
+        <v>88.00088979573776</v>
       </c>
       <c r="G19" t="n">
-        <v>58.95989942638427</v>
+        <v>65.63976319623883</v>
       </c>
       <c r="H19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396499</v>
       </c>
       <c r="I19" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396499</v>
       </c>
       <c r="J19" t="n">
         <v>52.20043087411048</v>
@@ -5677,13 +5677,13 @@
         <v>171.2786430968842</v>
       </c>
       <c r="L19" t="n">
-        <v>379.1841921514301</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M19" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149707</v>
       </c>
       <c r="N19" t="n">
-        <v>838.3522680982619</v>
+        <v>838.352268098262</v>
       </c>
       <c r="O19" t="n">
         <v>1034.382596529673</v>
@@ -5695,28 +5695,28 @@
         <v>1195.013110181716</v>
       </c>
       <c r="R19" t="n">
-        <v>1195.013110181716</v>
+        <v>1071.654745770362</v>
       </c>
       <c r="S19" t="n">
-        <v>1136.419658182693</v>
+        <v>1013.061293771339</v>
       </c>
       <c r="T19" t="n">
-        <v>1057.554387517023</v>
+        <v>788.1086459168106</v>
       </c>
       <c r="U19" t="n">
-        <v>914.4982250771753</v>
+        <v>645.0524834769633</v>
       </c>
       <c r="V19" t="n">
-        <v>805.9011140601473</v>
+        <v>536.4553724599351</v>
       </c>
       <c r="W19" t="n">
-        <v>662.5713212120454</v>
+        <v>393.1255796118332</v>
       </c>
       <c r="X19" t="n">
-        <v>580.6691475028869</v>
+        <v>227.7735340569013</v>
       </c>
       <c r="Y19" t="n">
-        <v>505.9639455482155</v>
+        <v>153.0683321022299</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1431.021337346028</v>
+        <v>1329.594823140046</v>
       </c>
       <c r="C20" t="n">
         <v>1208.146197594476</v>
       </c>
       <c r="D20" t="n">
-        <v>995.9678761765838</v>
+        <v>995.9678761765842</v>
       </c>
       <c r="E20" t="n">
-        <v>756.2670007671984</v>
+        <v>756.2670007671987</v>
       </c>
       <c r="F20" t="n">
-        <v>491.3684731664496</v>
+        <v>491.3684731664499</v>
       </c>
       <c r="G20" t="n">
-        <v>220.7210631716098</v>
+        <v>220.7210631716099</v>
       </c>
       <c r="H20" t="n">
         <v>52.20043087411048</v>
@@ -5753,25 +5753,25 @@
         <v>270.2041001343099</v>
       </c>
       <c r="K20" t="n">
-        <v>717.6798929816109</v>
+        <v>396.7759345361578</v>
       </c>
       <c r="L20" t="n">
-        <v>911.6052076622429</v>
+        <v>1004.185851621736</v>
       </c>
       <c r="M20" t="n">
-        <v>1159.053923096399</v>
+        <v>1251.634567055892</v>
       </c>
       <c r="N20" t="n">
-        <v>1415.12042582478</v>
+        <v>1507.701069784273</v>
       </c>
       <c r="O20" t="n">
-        <v>2020.573681362723</v>
+        <v>2113.154325322216</v>
       </c>
       <c r="P20" t="n">
-        <v>2499.639644400693</v>
+        <v>2305.752179175668</v>
       </c>
       <c r="Q20" t="n">
-        <v>2610.021543705524</v>
+        <v>2588.28900646351</v>
       </c>
       <c r="R20" t="n">
         <v>2610.021543705524</v>
@@ -5783,19 +5783,19 @@
         <v>2540.770496610052</v>
       </c>
       <c r="U20" t="n">
-        <v>2433.194410110451</v>
+        <v>2433.19441011045</v>
       </c>
       <c r="V20" t="n">
         <v>2248.218899955739</v>
       </c>
       <c r="W20" t="n">
-        <v>2041.537621874484</v>
+        <v>2041.537621874483</v>
       </c>
       <c r="X20" t="n">
-        <v>1814.159240802263</v>
+        <v>1814.159240802262</v>
       </c>
       <c r="Y20" t="n">
-        <v>1570.10728601531</v>
+        <v>1570.107286015309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>957.1064540750158</v>
+        <v>957.1064540750159</v>
       </c>
       <c r="C21" t="n">
-        <v>782.6534247938888</v>
+        <v>782.6534247938889</v>
       </c>
       <c r="D21" t="n">
         <v>633.7190151326377</v>
       </c>
       <c r="E21" t="n">
-        <v>474.4815601271821</v>
+        <v>474.4815601271822</v>
       </c>
       <c r="F21" t="n">
         <v>327.9470021540671</v>
@@ -5823,7 +5823,7 @@
         <v>190.6944732642093</v>
       </c>
       <c r="H21" t="n">
-        <v>91.60256992448006</v>
+        <v>91.60256992448005</v>
       </c>
       <c r="I21" t="n">
         <v>52.20043087411048</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.8273806909941</v>
+        <v>178.2281035291173</v>
       </c>
       <c r="C22" t="n">
-        <v>87.97857495194596</v>
+        <v>155.3792977900692</v>
       </c>
       <c r="D22" t="n">
-        <v>83.94931272846902</v>
+        <v>151.3500355665922</v>
       </c>
       <c r="E22" t="n">
-        <v>82.1235963349347</v>
+        <v>149.5243191730578</v>
       </c>
       <c r="F22" t="n">
-        <v>81.32102602588314</v>
+        <v>148.7217488640062</v>
       </c>
       <c r="G22" t="n">
-        <v>58.95989942638427</v>
+        <v>126.3606222645072</v>
       </c>
       <c r="H22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396499</v>
       </c>
       <c r="I22" t="n">
-        <v>52.20043087411048</v>
+        <v>58.88029464396499</v>
       </c>
       <c r="J22" t="n">
         <v>52.20043087411048</v>
@@ -5914,13 +5914,13 @@
         <v>171.2786430968842</v>
       </c>
       <c r="L22" t="n">
-        <v>379.1841921514301</v>
+        <v>379.1841921514302</v>
       </c>
       <c r="M22" t="n">
-        <v>608.7805662149706</v>
+        <v>608.7805662149707</v>
       </c>
       <c r="N22" t="n">
-        <v>838.3522680982619</v>
+        <v>838.352268098262</v>
       </c>
       <c r="O22" t="n">
         <v>1034.382596529673</v>
@@ -5932,28 +5932,28 @@
         <v>1195.013110181716</v>
       </c>
       <c r="R22" t="n">
-        <v>1071.654745770362</v>
+        <v>1195.013110181716</v>
       </c>
       <c r="S22" t="n">
-        <v>866.9739165824801</v>
+        <v>990.3322809938343</v>
       </c>
       <c r="T22" t="n">
-        <v>788.1086459168102</v>
+        <v>765.3796331393056</v>
       </c>
       <c r="U22" t="n">
-        <v>554.9227478613348</v>
+        <v>622.3234706994583</v>
       </c>
       <c r="V22" t="n">
-        <v>446.3256368443067</v>
+        <v>513.7263596824301</v>
       </c>
       <c r="W22" t="n">
-        <v>302.9958439962048</v>
+        <v>370.3965668343283</v>
       </c>
       <c r="X22" t="n">
-        <v>221.0936702870463</v>
+        <v>288.4943931251697</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.388468332375</v>
+        <v>213.7891911704983</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1210.216126455822</v>
       </c>
       <c r="D23" t="n">
-        <v>998.0378050379306</v>
+        <v>998.0378050379304</v>
       </c>
       <c r="E23" t="n">
-        <v>758.3369296285455</v>
+        <v>758.336929628545</v>
       </c>
       <c r="F23" t="n">
-        <v>493.4384020277967</v>
+        <v>493.4384020277962</v>
       </c>
       <c r="G23" t="n">
-        <v>222.7909920329564</v>
+        <v>222.7909920329565</v>
       </c>
       <c r="H23" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="I23" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8683799753034</v>
+        <v>201.5456152186279</v>
       </c>
       <c r="K23" t="n">
-        <v>231.4402143771513</v>
+        <v>649.0214080659289</v>
       </c>
       <c r="L23" t="n">
-        <v>425.3655290577832</v>
+        <v>842.9467227465609</v>
       </c>
       <c r="M23" t="n">
-        <v>672.8142444919392</v>
+        <v>1090.395438180717</v>
       </c>
       <c r="N23" t="n">
-        <v>1324.729403667083</v>
+        <v>1346.461940909098</v>
       </c>
       <c r="O23" t="n">
-        <v>1930.182659205026</v>
+        <v>1951.915196447041</v>
       </c>
       <c r="P23" t="n">
-        <v>2409.248622242996</v>
+        <v>2430.981159485011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2691.785449530837</v>
+        <v>2713.517986772853</v>
       </c>
       <c r="R23" t="n">
-        <v>2713.517986772852</v>
+        <v>2713.517986772853</v>
       </c>
       <c r="S23" t="n">
-        <v>2711.434190447412</v>
+        <v>2711.434190447413</v>
       </c>
       <c r="T23" t="n">
         <v>2644.26693967738</v>
@@ -6060,28 +6060,28 @@
         <v>192.7644021255559</v>
       </c>
       <c r="H24" t="n">
-        <v>93.6724987858266</v>
+        <v>93.67249878582662</v>
       </c>
       <c r="I24" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="J24" t="n">
         <v>190.4184719891815</v>
       </c>
       <c r="K24" t="n">
-        <v>287.9175396554188</v>
+        <v>549.7381242978717</v>
       </c>
       <c r="L24" t="n">
-        <v>832.4715512705279</v>
+        <v>1094.292135912981</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.871606399786</v>
+        <v>1320.692191042239</v>
       </c>
       <c r="N24" t="n">
-        <v>1305.672442229673</v>
+        <v>1620.23283578122</v>
       </c>
       <c r="O24" t="n">
-        <v>1898.433144040308</v>
+        <v>2213.711284993846</v>
       </c>
       <c r="P24" t="n">
         <v>2357.748853840356</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>203.0270451679689</v>
+        <v>112.897309552341</v>
       </c>
       <c r="C25" t="n">
-        <v>180.1782394289208</v>
+        <v>90.04850381329281</v>
       </c>
       <c r="D25" t="n">
-        <v>176.1489772054438</v>
+        <v>86.01924158981582</v>
       </c>
       <c r="E25" t="n">
-        <v>174.3232608119095</v>
+        <v>84.19352519628144</v>
       </c>
       <c r="F25" t="n">
-        <v>173.5206905028579</v>
+        <v>83.39095488722982</v>
       </c>
       <c r="G25" t="n">
-        <v>61.02982828773082</v>
+        <v>61.02982828773089</v>
       </c>
       <c r="H25" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="I25" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="J25" t="n">
-        <v>54.27035973545703</v>
+        <v>54.27035973545705</v>
       </c>
       <c r="K25" t="n">
-        <v>173.3485719582307</v>
+        <v>173.3485719582308</v>
       </c>
       <c r="L25" t="n">
         <v>381.2541210127767</v>
       </c>
       <c r="M25" t="n">
-        <v>610.8504950763172</v>
+        <v>610.8504950763173</v>
       </c>
       <c r="N25" t="n">
-        <v>840.4221969596085</v>
+        <v>840.4221969596086</v>
       </c>
       <c r="O25" t="n">
         <v>1036.45252539102</v>
@@ -6166,31 +6166,31 @@
         <v>1180.669654420918</v>
       </c>
       <c r="Q25" t="n">
-        <v>1197.083039043062</v>
+        <v>1197.083039043063</v>
       </c>
       <c r="R25" t="n">
-        <v>1073.724674631708</v>
+        <v>1197.083039043063</v>
       </c>
       <c r="S25" t="n">
-        <v>1015.131222632686</v>
+        <v>1138.48958704404</v>
       </c>
       <c r="T25" t="n">
-        <v>790.1785747781569</v>
+        <v>1059.62431637837</v>
       </c>
       <c r="U25" t="n">
-        <v>647.1224123383096</v>
+        <v>770.4807767496636</v>
       </c>
       <c r="V25" t="n">
-        <v>538.5253013212815</v>
+        <v>515.7962885437768</v>
       </c>
       <c r="W25" t="n">
-        <v>395.1955084731796</v>
+        <v>372.4664956956749</v>
       </c>
       <c r="X25" t="n">
-        <v>313.2933347640211</v>
+        <v>223.1635991483933</v>
       </c>
       <c r="Y25" t="n">
-        <v>238.5881328093498</v>
+        <v>148.458397193722</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C26" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D26" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E26" t="n">
-        <v>997.0332402555021</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F26" t="n">
-        <v>667.2234295874616</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G26" t="n">
-        <v>331.6647365253297</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H26" t="n">
-        <v>98.23282116053866</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I26" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J26" t="n">
-        <v>123.9227884626467</v>
+        <v>291.3284374829997</v>
       </c>
       <c r="K26" t="n">
-        <v>571.3985813099476</v>
+        <v>738.8042303303007</v>
       </c>
       <c r="L26" t="n">
-        <v>1178.808498395525</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M26" t="n">
-        <v>1871.275611987586</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N26" t="n">
-        <v>2560.315569883831</v>
+        <v>2282.702820746279</v>
       </c>
       <c r="O26" t="n">
-        <v>2904.635620814206</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P26" t="n">
-        <v>3383.701583852175</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q26" t="n">
-        <v>3666.238411140017</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R26" t="n">
         <v>3666.238411140017</v>
@@ -6269,7 +6269,7 @@
         <v>2480.908409833006</v>
       </c>
       <c r="Y26" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.9932447349527</v>
+        <v>559.9932447349536</v>
       </c>
       <c r="C28" t="n">
-        <v>472.2331559286129</v>
+        <v>472.2331559286138</v>
       </c>
       <c r="D28" t="n">
-        <v>403.2926106378443</v>
+        <v>403.2926106378452</v>
       </c>
       <c r="E28" t="n">
-        <v>336.5556111770183</v>
+        <v>336.5556111770192</v>
       </c>
       <c r="F28" t="n">
-        <v>270.8417578006751</v>
+        <v>270.8417578006759</v>
       </c>
       <c r="G28" t="n">
-        <v>183.5693481338845</v>
+        <v>183.5693481338853</v>
       </c>
       <c r="H28" t="n">
-        <v>111.898596514319</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I28" t="n">
         <v>73.32476822280034</v>
@@ -6388,46 +6388,46 @@
         <v>344.9774256618354</v>
       </c>
       <c r="L28" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649291</v>
       </c>
       <c r="M28" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N28" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O28" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P28" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q28" t="n">
-        <v>1846.076031837953</v>
+        <v>1846.076031837955</v>
       </c>
       <c r="R28" t="n">
-        <v>1803.893761548167</v>
+        <v>1803.893761548168</v>
       </c>
       <c r="S28" t="n">
-        <v>1680.389026481852</v>
+        <v>1680.389026481853</v>
       </c>
       <c r="T28" t="n">
-        <v>1536.612472748891</v>
+        <v>1536.612472748892</v>
       </c>
       <c r="U28" t="n">
-        <v>1328.645027241752</v>
+        <v>1328.645027241753</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.136633157432</v>
+        <v>1155.136633157433</v>
       </c>
       <c r="W28" t="n">
-        <v>946.8955572420384</v>
+        <v>946.8955572420397</v>
       </c>
       <c r="X28" t="n">
-        <v>800.0821004655882</v>
+        <v>800.0821004655894</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.4656154436252</v>
+        <v>660.4656154436261</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1866.521426036206</v>
+        <v>1866.521426036207</v>
       </c>
       <c r="C29" t="n">
-        <v>1578.735003217361</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D29" t="n">
-        <v>1301.645398732178</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E29" t="n">
-        <v>997.0332402555009</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F29" t="n">
-        <v>667.2234295874605</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G29" t="n">
-        <v>331.6647365253289</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H29" t="n">
-        <v>98.23282116053863</v>
+        <v>98.23282116053868</v>
       </c>
       <c r="I29" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J29" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K29" t="n">
-        <v>733.5512376182696</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L29" t="n">
-        <v>1340.961154703848</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.409870138003</v>
+        <v>1593.662862850035</v>
       </c>
       <c r="N29" t="n">
         <v>2277.449828034249</v>
       </c>
       <c r="O29" t="n">
-        <v>2882.903083572191</v>
+        <v>2882.903083572192</v>
       </c>
       <c r="P29" t="n">
-        <v>3361.969046610161</v>
+        <v>3361.969046610162</v>
       </c>
       <c r="Q29" t="n">
-        <v>3644.505873898003</v>
+        <v>3644.505873898004</v>
       </c>
       <c r="R29" t="n">
-        <v>3666.238411140017</v>
+        <v>3666.238411140018</v>
       </c>
       <c r="S29" t="n">
-        <v>3599.243331747285</v>
+        <v>3599.243331747287</v>
       </c>
       <c r="T29" t="n">
-        <v>3467.16479790996</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U29" t="n">
-        <v>3294.677428343069</v>
+        <v>3294.67742834307</v>
       </c>
       <c r="V29" t="n">
-        <v>3044.790635121065</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W29" t="n">
-        <v>2773.198073972518</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X29" t="n">
-        <v>2480.908409833005</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y29" t="n">
-        <v>2171.94517197876</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I30" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J30" t="n">
         <v>209.4728804765248</v>
@@ -6549,10 +6549,10 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M30" t="n">
-        <v>1467.131963569101</v>
+        <v>1339.746599529582</v>
       </c>
       <c r="N30" t="n">
-        <v>1713.932799398988</v>
+        <v>1586.547435359469</v>
       </c>
       <c r="O30" t="n">
         <v>1917.487552527652</v>
@@ -6604,7 +6604,7 @@
         <v>403.2926106378449</v>
       </c>
       <c r="E31" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F31" t="n">
         <v>270.8417578006755</v>
@@ -6613,28 +6613,28 @@
         <v>183.5693481338849</v>
       </c>
       <c r="H31" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143194</v>
       </c>
       <c r="I31" t="n">
-        <v>73.32476822280034</v>
+        <v>73.32476822280036</v>
       </c>
       <c r="J31" t="n">
-        <v>146.3385235905138</v>
+        <v>146.338523590514</v>
       </c>
       <c r="K31" t="n">
-        <v>344.9774256618355</v>
+        <v>344.9774256618356</v>
       </c>
       <c r="L31" t="n">
         <v>632.4436645649293</v>
       </c>
       <c r="M31" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770179</v>
       </c>
       <c r="N31" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P31" t="n">
         <v>1750.101957367262</v>
@@ -6646,7 +6646,7 @@
         <v>1803.893761548168</v>
       </c>
       <c r="S31" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481854</v>
       </c>
       <c r="T31" t="n">
         <v>1536.612472748892</v>
@@ -6658,13 +6658,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W31" t="n">
-        <v>946.8955572420393</v>
+        <v>946.8955572420394</v>
       </c>
       <c r="X31" t="n">
         <v>800.0821004655891</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.4656154436259</v>
+        <v>660.465615443626</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.735003217362</v>
+        <v>1578.735003217363</v>
       </c>
       <c r="D32" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E32" t="n">
-        <v>997.0332402555014</v>
+        <v>997.0332402555023</v>
       </c>
       <c r="F32" t="n">
-        <v>667.2234295874609</v>
+        <v>667.2234295874619</v>
       </c>
       <c r="G32" t="n">
-        <v>331.6647365253298</v>
+        <v>331.6647365253302</v>
       </c>
       <c r="H32" t="n">
         <v>98.23282116053868</v>
       </c>
       <c r="I32" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J32" t="n">
-        <v>291.3284374829998</v>
+        <v>254.5416490180095</v>
       </c>
       <c r="K32" t="n">
-        <v>702.0174418653121</v>
+        <v>702.0174418653105</v>
       </c>
       <c r="L32" t="n">
-        <v>895.9427565459441</v>
+        <v>895.9427565459426</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.409870138004</v>
+        <v>1588.409870138003</v>
       </c>
       <c r="N32" t="n">
-        <v>2277.44982803425</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O32" t="n">
-        <v>2882.903083572192</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P32" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q32" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R32" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S32" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T32" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U32" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V32" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W32" t="n">
-        <v>2773.198073972519</v>
+        <v>2773.19807397252</v>
       </c>
       <c r="X32" t="n">
-        <v>2480.908409833006</v>
+        <v>2480.908409833007</v>
       </c>
       <c r="Y32" t="n">
-        <v>2171.945171978761</v>
+        <v>2171.945171978762</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I33" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J33" t="n">
         <v>209.4728804765248</v>
@@ -6783,16 +6783,16 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L33" t="n">
-        <v>1113.346544400324</v>
+        <v>1081.461098793264</v>
       </c>
       <c r="M33" t="n">
-        <v>1467.131963569101</v>
+        <v>1307.861153922521</v>
       </c>
       <c r="N33" t="n">
-        <v>1713.932799398988</v>
+        <v>2029.210940352526</v>
       </c>
       <c r="O33" t="n">
-        <v>1917.487552527652</v>
+        <v>2232.76569348119</v>
       </c>
       <c r="P33" t="n">
         <v>2376.8032623277</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349536</v>
       </c>
       <c r="C34" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286137</v>
       </c>
       <c r="D34" t="n">
-        <v>403.2926106378449</v>
+        <v>403.292610637845</v>
       </c>
       <c r="E34" t="n">
-        <v>336.5556111770188</v>
+        <v>336.555611177019</v>
       </c>
       <c r="F34" t="n">
-        <v>270.8417578006755</v>
+        <v>270.8417578006757</v>
       </c>
       <c r="G34" t="n">
-        <v>183.5693481338849</v>
+        <v>183.5693481338851</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8985965143194</v>
+        <v>111.8985965143195</v>
       </c>
       <c r="I34" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J34" t="n">
-        <v>146.3385235905139</v>
+        <v>146.3385235905138</v>
       </c>
       <c r="K34" t="n">
         <v>344.9774256618355</v>
@@ -6886,7 +6886,7 @@
         <v>1680.389026481853</v>
       </c>
       <c r="T34" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U34" t="n">
         <v>1328.645027241753</v>
@@ -6895,13 +6895,13 @@
         <v>1155.136633157433</v>
       </c>
       <c r="W34" t="n">
-        <v>946.8955572420394</v>
+        <v>946.8955572420391</v>
       </c>
       <c r="X34" t="n">
-        <v>800.0821004655892</v>
+        <v>800.0821004655888</v>
       </c>
       <c r="Y34" t="n">
-        <v>660.465615443626</v>
+        <v>660.4656154436262</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>331.6647365253302</v>
       </c>
       <c r="H35" t="n">
-        <v>98.23282116053865</v>
+        <v>98.23282116053862</v>
       </c>
       <c r="I35" t="n">
         <v>73.32476822280034</v>
@@ -6938,25 +6938,25 @@
         <v>291.3284374829998</v>
       </c>
       <c r="K35" t="n">
-        <v>738.8042303303007</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L35" t="n">
         <v>1346.214147415879</v>
       </c>
       <c r="M35" t="n">
-        <v>1965.402049588121</v>
+        <v>2038.681261007939</v>
       </c>
       <c r="N35" t="n">
-        <v>2654.442007484367</v>
+        <v>2299.182365276262</v>
       </c>
       <c r="O35" t="n">
-        <v>2882.903083572192</v>
+        <v>2904.635620814206</v>
       </c>
       <c r="P35" t="n">
-        <v>3361.969046610162</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q35" t="n">
-        <v>3644.505873898003</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R35" t="n">
         <v>3666.238411140017</v>
@@ -7020,13 +7020,13 @@
         <v>568.7925327852149</v>
       </c>
       <c r="L36" t="n">
-        <v>1113.346544400324</v>
+        <v>779.6838953273437</v>
       </c>
       <c r="M36" t="n">
-        <v>1339.746599529582</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N36" t="n">
-        <v>1586.547435359469</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O36" t="n">
         <v>1917.487552527652</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.9932447349534</v>
+        <v>559.9932447349524</v>
       </c>
       <c r="C37" t="n">
-        <v>472.2331559286135</v>
+        <v>472.2331559286127</v>
       </c>
       <c r="D37" t="n">
-        <v>403.2926106378449</v>
+        <v>403.2926106378441</v>
       </c>
       <c r="E37" t="n">
-        <v>336.5556111770188</v>
+        <v>336.5556111770181</v>
       </c>
       <c r="F37" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006748</v>
       </c>
       <c r="G37" t="n">
-        <v>183.569348133885</v>
+        <v>183.5693481338843</v>
       </c>
       <c r="H37" t="n">
-        <v>111.8985965143195</v>
+        <v>111.8985965143188</v>
       </c>
       <c r="I37" t="n">
         <v>73.32476822280034</v>
       </c>
       <c r="J37" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K37" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618355</v>
       </c>
       <c r="L37" t="n">
-        <v>632.4436645649292</v>
+        <v>632.4436645649293</v>
       </c>
       <c r="M37" t="n">
-        <v>941.6007284770175</v>
+        <v>941.6007284770178</v>
       </c>
       <c r="N37" t="n">
         <v>1250.733120208857</v>
@@ -7117,10 +7117,10 @@
         <v>1846.076031837954</v>
       </c>
       <c r="R37" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S37" t="n">
-        <v>1680.389026481853</v>
+        <v>1680.389026481852</v>
       </c>
       <c r="T37" t="n">
         <v>1536.612472748891</v>
@@ -7129,16 +7129,16 @@
         <v>1328.645027241752</v>
       </c>
       <c r="V37" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W37" t="n">
-        <v>946.8955572420392</v>
+        <v>946.8955572420384</v>
       </c>
       <c r="X37" t="n">
-        <v>800.082100465589</v>
+        <v>800.0821004655882</v>
       </c>
       <c r="Y37" t="n">
-        <v>660.4656154436259</v>
+        <v>660.465615443625</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C38" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D38" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555016</v>
       </c>
       <c r="F38" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874612</v>
       </c>
       <c r="G38" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253297</v>
       </c>
       <c r="H38" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053863</v>
       </c>
       <c r="I38" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J38" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K38" t="n">
-        <v>721.5062946282305</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L38" t="n">
-        <v>1328.916211713808</v>
+        <v>1346.214147415879</v>
       </c>
       <c r="M38" t="n">
-        <v>2021.383325305869</v>
+        <v>2038.681261007939</v>
       </c>
       <c r="N38" t="n">
-        <v>2277.44982803425</v>
+        <v>2294.74776373632</v>
       </c>
       <c r="O38" t="n">
-        <v>2882.903083572192</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P38" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q38" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R38" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S38" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T38" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U38" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V38" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W38" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X38" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y38" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I39" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J39" t="n">
         <v>209.4728804765248</v>
@@ -7260,10 +7260,10 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M39" t="n">
-        <v>1339.746599529582</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N39" t="n">
-        <v>1586.547435359469</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O39" t="n">
         <v>1917.487552527652</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.9932447349535</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C40" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286134</v>
       </c>
       <c r="D40" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E40" t="n">
-        <v>336.555611177019</v>
+        <v>336.5556111770188</v>
       </c>
       <c r="F40" t="n">
-        <v>270.8417578006757</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G40" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H40" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I40" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J40" t="n">
         <v>146.3385235905138</v>
       </c>
       <c r="K40" t="n">
-        <v>344.9774256618354</v>
+        <v>344.977425661835</v>
       </c>
       <c r="L40" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649289</v>
       </c>
       <c r="M40" t="n">
-        <v>941.6007284770177</v>
+        <v>941.6007284770175</v>
       </c>
       <c r="N40" t="n">
         <v>1250.733120208857</v>
@@ -7375,7 +7375,7 @@
         <v>800.0821004655888</v>
       </c>
       <c r="Y40" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1866.521426036207</v>
+        <v>1866.521426036208</v>
       </c>
       <c r="C41" t="n">
         <v>1578.735003217363</v>
       </c>
       <c r="D41" t="n">
-        <v>1301.645398732179</v>
+        <v>1301.64539873218</v>
       </c>
       <c r="E41" t="n">
         <v>997.0332402555023</v>
@@ -7403,49 +7403,49 @@
         <v>331.6647365253302</v>
       </c>
       <c r="H41" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053866</v>
       </c>
       <c r="I41" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J41" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K41" t="n">
-        <v>738.8042303303007</v>
+        <v>628.8460977921467</v>
       </c>
       <c r="L41" t="n">
-        <v>1346.214147415879</v>
+        <v>1236.256014877725</v>
       </c>
       <c r="M41" t="n">
-        <v>1593.662862850035</v>
+        <v>1928.723128469785</v>
       </c>
       <c r="N41" t="n">
-        <v>2277.44982803425</v>
+        <v>2617.76308636603</v>
       </c>
       <c r="O41" t="n">
-        <v>2882.903083572192</v>
+        <v>3223.216341903973</v>
       </c>
       <c r="P41" t="n">
-        <v>3361.969046610162</v>
+        <v>3383.701583852175</v>
       </c>
       <c r="Q41" t="n">
-        <v>3644.505873898004</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="R41" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S41" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T41" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909962</v>
       </c>
       <c r="U41" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V41" t="n">
-        <v>3044.790635121066</v>
+        <v>3044.790635121067</v>
       </c>
       <c r="W41" t="n">
         <v>2773.19807397252</v>
@@ -7485,7 +7485,7 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I42" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J42" t="n">
         <v>209.4728804765248</v>
@@ -7497,10 +7497,10 @@
         <v>1113.346544400324</v>
       </c>
       <c r="M42" t="n">
-        <v>1339.746599529582</v>
+        <v>1467.131963569101</v>
       </c>
       <c r="N42" t="n">
-        <v>1586.547435359469</v>
+        <v>1713.932799398988</v>
       </c>
       <c r="O42" t="n">
         <v>1917.487552527652</v>
@@ -7558,13 +7558,13 @@
         <v>270.8417578006756</v>
       </c>
       <c r="G43" t="n">
-        <v>183.5693481338851</v>
+        <v>183.569348133885</v>
       </c>
       <c r="H43" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I43" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J43" t="n">
         <v>146.3385235905138</v>
@@ -7573,16 +7573,16 @@
         <v>344.9774256618354</v>
       </c>
       <c r="L43" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649292</v>
       </c>
       <c r="M43" t="n">
-        <v>941.6007284770176</v>
+        <v>941.6007284770182</v>
       </c>
       <c r="N43" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O43" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P43" t="n">
         <v>1750.101957367262</v>
@@ -7625,73 +7625,73 @@
         <v>1866.521426036207</v>
       </c>
       <c r="C44" t="n">
-        <v>1578.735003217363</v>
+        <v>1578.735003217362</v>
       </c>
       <c r="D44" t="n">
         <v>1301.645398732179</v>
       </c>
       <c r="E44" t="n">
-        <v>997.0332402555023</v>
+        <v>997.0332402555018</v>
       </c>
       <c r="F44" t="n">
-        <v>667.2234295874619</v>
+        <v>667.2234295874614</v>
       </c>
       <c r="G44" t="n">
-        <v>331.6647365253302</v>
+        <v>331.6647365253298</v>
       </c>
       <c r="H44" t="n">
-        <v>98.23282116053869</v>
+        <v>98.23282116053861</v>
       </c>
       <c r="I44" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J44" t="n">
         <v>291.3284374829998</v>
       </c>
       <c r="K44" t="n">
-        <v>738.8042303303007</v>
+        <v>738.8042303303008</v>
       </c>
       <c r="L44" t="n">
-        <v>1346.214147415879</v>
+        <v>1328.916211713807</v>
       </c>
       <c r="M44" t="n">
-        <v>1593.662862850035</v>
+        <v>2021.383325305867</v>
       </c>
       <c r="N44" t="n">
-        <v>2277.44982803425</v>
+        <v>2277.449828034248</v>
       </c>
       <c r="O44" t="n">
-        <v>2882.903083572192</v>
+        <v>2882.903083572191</v>
       </c>
       <c r="P44" t="n">
-        <v>3361.969046610162</v>
+        <v>3361.969046610161</v>
       </c>
       <c r="Q44" t="n">
-        <v>3644.505873898004</v>
+        <v>3644.505873898003</v>
       </c>
       <c r="R44" t="n">
-        <v>3666.238411140018</v>
+        <v>3666.238411140017</v>
       </c>
       <c r="S44" t="n">
-        <v>3599.243331747287</v>
+        <v>3599.243331747286</v>
       </c>
       <c r="T44" t="n">
-        <v>3467.164797909963</v>
+        <v>3467.164797909961</v>
       </c>
       <c r="U44" t="n">
         <v>3294.67742834307</v>
       </c>
       <c r="V44" t="n">
-        <v>3044.790635121067</v>
+        <v>3044.790635121066</v>
       </c>
       <c r="W44" t="n">
-        <v>2773.19807397252</v>
+        <v>2773.198073972519</v>
       </c>
       <c r="X44" t="n">
-        <v>2480.908409833007</v>
+        <v>2480.908409833006</v>
       </c>
       <c r="Y44" t="n">
-        <v>2171.945171978762</v>
+        <v>2171.945171978761</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>112.7269072731699</v>
       </c>
       <c r="I45" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J45" t="n">
-        <v>209.4728804765248</v>
+        <v>84.64275548952003</v>
       </c>
       <c r="K45" t="n">
-        <v>568.7925327852149</v>
+        <v>306.254200740772</v>
       </c>
       <c r="L45" t="n">
-        <v>1113.346544400324</v>
+        <v>850.8082123558813</v>
       </c>
       <c r="M45" t="n">
-        <v>1339.746599529582</v>
+        <v>1077.208267485139</v>
       </c>
       <c r="N45" t="n">
-        <v>1586.547435359469</v>
+        <v>1324.009103315026</v>
       </c>
       <c r="O45" t="n">
         <v>1917.487552527652</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.9932447349535</v>
+        <v>559.9932447349531</v>
       </c>
       <c r="C46" t="n">
-        <v>472.2331559286137</v>
+        <v>472.2331559286133</v>
       </c>
       <c r="D46" t="n">
-        <v>403.292610637845</v>
+        <v>403.2926106378447</v>
       </c>
       <c r="E46" t="n">
-        <v>336.5556111770189</v>
+        <v>336.5556111770187</v>
       </c>
       <c r="F46" t="n">
-        <v>270.8417578006756</v>
+        <v>270.8417578006755</v>
       </c>
       <c r="G46" t="n">
-        <v>183.5693481338851</v>
+        <v>183.5693481338849</v>
       </c>
       <c r="H46" t="n">
         <v>111.8985965143195</v>
       </c>
       <c r="I46" t="n">
-        <v>73.32476822280036</v>
+        <v>73.32476822280034</v>
       </c>
       <c r="J46" t="n">
-        <v>146.3385235905138</v>
+        <v>146.3385235905139</v>
       </c>
       <c r="K46" t="n">
-        <v>344.9774256618354</v>
+        <v>344.9774256618356</v>
       </c>
       <c r="L46" t="n">
-        <v>632.4436645649291</v>
+        <v>632.4436645649296</v>
       </c>
       <c r="M46" t="n">
-        <v>941.6007284770179</v>
+        <v>941.600728477018</v>
       </c>
       <c r="N46" t="n">
         <v>1250.733120208857</v>
       </c>
       <c r="O46" t="n">
-        <v>1526.324138488816</v>
+        <v>1526.324138488817</v>
       </c>
       <c r="P46" t="n">
         <v>1750.101957367262</v>
       </c>
       <c r="Q46" t="n">
-        <v>1846.076031837955</v>
+        <v>1846.076031837954</v>
       </c>
       <c r="R46" t="n">
-        <v>1803.893761548168</v>
+        <v>1803.893761548167</v>
       </c>
       <c r="S46" t="n">
         <v>1680.389026481853</v>
       </c>
       <c r="T46" t="n">
-        <v>1536.612472748892</v>
+        <v>1536.612472748891</v>
       </c>
       <c r="U46" t="n">
-        <v>1328.645027241753</v>
+        <v>1328.645027241752</v>
       </c>
       <c r="V46" t="n">
-        <v>1155.136633157433</v>
+        <v>1155.136633157432</v>
       </c>
       <c r="W46" t="n">
-        <v>946.8955572420394</v>
+        <v>946.8955572420389</v>
       </c>
       <c r="X46" t="n">
-        <v>800.0821004655892</v>
+        <v>800.0821004655886</v>
       </c>
       <c r="Y46" t="n">
-        <v>660.4656154436261</v>
+        <v>660.4656154436257</v>
       </c>
     </row>
   </sheetData>
@@ -8693,10 +8693,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>184.9542567930237</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>89.09175041405521</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.30081783102423</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>403.2116123608384</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8939,16 +8939,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>323.3587988941767</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>89.09175041405521</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>414.7635864709613</v>
+        <v>423.8184615533934</v>
       </c>
       <c r="N15" t="n">
         <v>403.2116123608384</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>71.62533038926588</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,28 +9164,28 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>402.5571885181424</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>260.5350699858119</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>89.89822554810772</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276622</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>32.43698172247463</v>
       </c>
       <c r="Q20" t="n">
-        <v>38.42112401039896</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>43.76436205276624</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>128.6720848884036</v>
+        <v>128.6720848884033</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>97.65377297305494</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>399.847127724003</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276622</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>53.27253425161061</v>
       </c>
       <c r="O24" t="n">
-        <v>393.1373219009819</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,13 +9881,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>117.0292675177269</v>
+        <v>375.4941280182701</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>43.7643620527663</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>318.8393593266889</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>432.0408711675082</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10197,13 +10197,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>128.6720848884036</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>131.9382429852149</v>
       </c>
       <c r="K32" t="n">
-        <v>286.9870403843075</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>338.6328244882465</v>
       </c>
       <c r="M33" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>375.4941280182694</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>4.479395494891151</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276622</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,16 +10668,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>33.8073664418628</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>306.6727502458413</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>363.3275189374205</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11060,28 +11060,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>213.0765918255545</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>432.040871167509</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>43.76436205276622</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,13 +11145,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>128.6720848884036</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>128.6720848884036</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>400.1885522251255</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>432.040871167509</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>125.3660379646613</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>128.6720848884036</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>318.4716714268619</v>
       </c>
       <c r="C11" t="n">
-        <v>301.0107215343888</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>286.9462340380949</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.76113535209362</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.42729154253641</v>
+        <v>82.42729154253647</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>146.8599114426838</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>87.3063102541153</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>284.9787984807943</v>
       </c>
       <c r="X11" t="n">
         <v>305.4689304418503</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1801330565508601</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.35330278159363</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.17179240995044</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>222.2608280999722</v>
+        <v>63.04086800192184</v>
       </c>
       <c r="X13" t="n">
-        <v>161.4474851524184</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.3224831154761</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>290.4208713840642</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>317.668199835643</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>165.407686502492</v>
+        <v>130.8450120334894</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>82.42729154253642</v>
       </c>
       <c r="T14" t="n">
-        <v>146.8599114426838</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>186.8646588149559</v>
       </c>
       <c r="V14" t="n">
         <v>263.4900882335161</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>284.9787984807942</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>74.84230526603845</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>87.05620704710246</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>221.9899339958002</v>
+        <v>161.6276182089686</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>222.2608280999722</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>100.4122490639214</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>66.49557826233239</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>33.91667080158939</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.4122490639215</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>100.4122490639229</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26320,10 +26320,10 @@
         <v>102409.5423396298</v>
       </c>
       <c r="E2" t="n">
-        <v>88879.12910714632</v>
+        <v>88879.12910714635</v>
       </c>
       <c r="F2" t="n">
-        <v>88879.12910714625</v>
+        <v>88879.12910714626</v>
       </c>
       <c r="G2" t="n">
         <v>101631.1193548495</v>
@@ -26353,7 +26353,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26375,28 +26375,28 @@
         <v>792873.2514315095</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.532061448048046e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>64291.46654428112</v>
+        <v>64291.46654428108</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6880.469409226706</v>
+        <v>6880.469409226767</v>
       </c>
       <c r="J3" t="n">
-        <v>62318.39567828066</v>
+        <v>62318.39567828063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>64291.4665442811</v>
+        <v>64291.46654428107</v>
       </c>
       <c r="M3" t="n">
-        <v>162606.9521943978</v>
+        <v>162606.9521943979</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26430,25 +26430,25 @@
         <v>131476.982197976</v>
       </c>
       <c r="G4" t="n">
-        <v>189547.7028295033</v>
+        <v>189547.7028295032</v>
       </c>
       <c r="H4" t="n">
         <v>189547.7028295032</v>
       </c>
       <c r="I4" t="n">
-        <v>192414.2210230132</v>
+        <v>192414.2210230131</v>
       </c>
       <c r="J4" t="n">
         <v>177002.7601002275</v>
       </c>
       <c r="K4" t="n">
-        <v>177002.7601002275</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="L4" t="n">
-        <v>177002.7601002275</v>
+        <v>177002.7601002273</v>
       </c>
       <c r="M4" t="n">
-        <v>177002.7601002275</v>
+        <v>177002.7601002274</v>
       </c>
       <c r="N4" t="n">
         <v>177002.7601002274</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>59907.62218574651</v>
+        <v>59907.6221857465</v>
       </c>
       <c r="F5" t="n">
         <v>59907.62218574651</v>
@@ -26494,10 +26494,10 @@
         <v>77315.81130726746</v>
       </c>
       <c r="K5" t="n">
+        <v>77315.81130726748</v>
+      </c>
+      <c r="L5" t="n">
         <v>77315.81130726746</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77315.81130726748</v>
       </c>
       <c r="M5" t="n">
         <v>77315.81130726746</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-351365.8265499014</v>
+        <v>-351370.2401277695</v>
       </c>
       <c r="C6" t="n">
-        <v>-351365.8265499015</v>
+        <v>-351370.2401277696</v>
       </c>
       <c r="D6" t="n">
-        <v>-351365.8265499015</v>
+        <v>-351370.2401277696</v>
       </c>
       <c r="E6" t="n">
-        <v>-895378.7267080859</v>
+        <v>-895653.7485506033</v>
       </c>
       <c r="F6" t="n">
-        <v>-102505.4752765763</v>
+        <v>-102780.4971190941</v>
       </c>
       <c r="G6" t="n">
-        <v>-218871.8213308204</v>
+        <v>-218891.803368384</v>
       </c>
       <c r="H6" t="n">
-        <v>-154580.3547865392</v>
+        <v>-154600.3368241029</v>
       </c>
       <c r="I6" t="n">
-        <v>-164901.3864457132</v>
+        <v>-164901.3864457133</v>
       </c>
       <c r="J6" t="n">
         <v>-214006.7458527401</v>
       </c>
       <c r="K6" t="n">
-        <v>-151688.3501744595</v>
+        <v>-151688.3501744594</v>
       </c>
       <c r="L6" t="n">
-        <v>-215979.8167187406</v>
+        <v>-215979.8167187404</v>
       </c>
       <c r="M6" t="n">
-        <v>-314295.3023688573</v>
+        <v>-314295.3023688574</v>
       </c>
       <c r="N6" t="n">
         <v>-151688.3501744594</v>
       </c>
       <c r="O6" t="n">
-        <v>-151688.3501744594</v>
+        <v>-151688.3501744593</v>
       </c>
       <c r="P6" t="n">
         <v>-151688.3501744595</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F2" t="n">
         <v>64.26217023661879</v>
       </c>
       <c r="G2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I2" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="J2" t="n">
+        <v>80.36433318035142</v>
+      </c>
+      <c r="K2" t="n">
+        <v>80.36433318035139</v>
+      </c>
+      <c r="L2" t="n">
+        <v>80.36433318035138</v>
+      </c>
+      <c r="M2" t="n">
         <v>80.36433318035144</v>
       </c>
-      <c r="K2" t="n">
-        <v>80.36433318035144</v>
-      </c>
-      <c r="L2" t="n">
-        <v>80.36433318035141</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>80.36433318035142</v>
-      </c>
-      <c r="N2" t="n">
-        <v>80.36433318035139</v>
       </c>
       <c r="O2" t="n">
         <v>80.36433318035139</v>
       </c>
       <c r="P2" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="F3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="G3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="H3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="I3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="J3" t="n">
         <v>680.4054280642309</v>
       </c>
       <c r="K3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="L3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="M3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="N3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="O3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="P3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>652.505385926381</v>
       </c>
       <c r="I4" t="n">
-        <v>678.3794966932129</v>
+        <v>678.3794966932131</v>
       </c>
       <c r="J4" t="n">
+        <v>916.5596027850044</v>
+      </c>
+      <c r="K4" t="n">
+        <v>916.5596027850045</v>
+      </c>
+      <c r="L4" t="n">
         <v>916.5596027850042</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>916.5596027850042</v>
       </c>
-      <c r="L4" t="n">
-        <v>916.5596027850045</v>
-      </c>
-      <c r="M4" t="n">
-        <v>916.5596027850044</v>
-      </c>
       <c r="N4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="O4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
       <c r="P4" t="n">
-        <v>916.5596027850045</v>
+        <v>916.5596027850042</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.665076810060058e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035138</v>
+        <v>80.36433318035134</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>680.405428064231</v>
+        <v>680.4054280642312</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.8741107668319</v>
+        <v>25.87411076683213</v>
       </c>
       <c r="J4" t="n">
-        <v>238.1801060917913</v>
+        <v>238.1801060917912</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>652.5053859263809</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.665076810060058e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035135</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="C13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="D13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="E13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="F13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="G13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="H13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="I13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="J13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="K13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="L13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="M13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="N13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="O13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="P13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="R13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="S13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="T13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="U13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="V13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="W13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="X13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.26217023661879</v>
+        <v>64.26217023661873</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I17" t="n">
         <v>105.0233055887123</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="T17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="U17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="V17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="W17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="Y17" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="18">
@@ -28719,31 +28719,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F19" t="n">
-        <v>77.89978780722852</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I19" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.1247807672402</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="T19" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="V19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="W19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X19" t="n">
-        <v>144.6265034169702</v>
+        <v>62.01113028965452</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I20" t="n">
         <v>105.0233055887123</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="T20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="U20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="V20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="W20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="Y20" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H22" t="n">
-        <v>144.6265034169702</v>
+        <v>84.51285293938442</v>
       </c>
       <c r="I22" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613065132155995</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>55.39806515749828</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="V22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="W22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I23" t="n">
         <v>105.0233055887123</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="T23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="U23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="V23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="W23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="C25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="D25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="E25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="F25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="G25" t="n">
-        <v>55.39806515749825</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="H25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="I25" t="n">
         <v>118.5524231889554</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613065132155995</v>
+        <v>6.613065132155967</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.1247807672402</v>
       </c>
       <c r="S25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="U25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>144.6265034169702</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
       <c r="X25" t="n">
-        <v>144.6265034169702</v>
+        <v>77.89978780722842</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6265034169702</v>
+        <v>144.6265034169701</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y26" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y29" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="C31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="D31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="E31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="F31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="G31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="H31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="I31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="J31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="K31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="L31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="M31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="N31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="O31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="P31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="R31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="S31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="T31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="U31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="V31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="W31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="X31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.36433318035144</v>
+        <v>80.36433318035139</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="C34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="D34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="E34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="F34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="G34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="H34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="I34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="J34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="K34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="L34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="M34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="N34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="O34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="P34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="R34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="S34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="T34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="U34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="V34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="W34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="X34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.36433318035141</v>
+        <v>80.36433318035138</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="C35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="D35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="E35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="F35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="G35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="H35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="I35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="T35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="U35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="V35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="W35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="X35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="C37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="D37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="E37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="F37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="G37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="H37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="I37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="J37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="K37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="L37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="M37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="N37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="O37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="P37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="R37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="S37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="T37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="U37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="V37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="W37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="X37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.36433318035142</v>
+        <v>80.36433318035144</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="C40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="D40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="E40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="F40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="G40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="H40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="I40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="J40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="K40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="L40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="M40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="N40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="O40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="P40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="R40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="S40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="T40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="U40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="V40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="W40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="X40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035142</v>
       </c>
     </row>
     <row r="41">
@@ -30657,7 +30657,7 @@
         <v>80.36433318035139</v>
       </c>
       <c r="P43" t="n">
-        <v>80.36433318035168</v>
+        <v>80.36433318035139</v>
       </c>
       <c r="Q43" t="n">
         <v>80.36433318035139</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y44" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="C46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="D46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="E46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="F46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="G46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="H46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="I46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="J46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="K46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="L46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="M46" t="n">
-        <v>80.36433318035182</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="N46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="O46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="P46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035031</v>
       </c>
       <c r="Q46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="R46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="S46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="T46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="U46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="V46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="W46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="X46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
       <c r="Y46" t="n">
-        <v>80.36433318035139</v>
+        <v>80.36433318035145</v>
       </c>
     </row>
   </sheetData>
@@ -31753,7 +31753,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H11" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I11" t="n">
         <v>105.4525839816936</v>
@@ -31762,13 +31762,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K11" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L11" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M11" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N11" t="n">
         <v>488.0660966555615</v>
@@ -31777,22 +31777,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q11" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R11" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S11" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T11" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U11" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K12" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L12" t="n">
         <v>317.768591663394</v>
@@ -31850,28 +31850,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N12" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O12" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q12" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R12" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S12" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T12" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,28 +31911,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H13" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I13" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J13" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K13" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L13" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M13" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N13" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O13" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P13" t="n">
         <v>148.3953084420742</v>
@@ -31941,16 +31941,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R13" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S13" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T13" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H14" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I14" t="n">
         <v>105.4525839816936</v>
@@ -31999,13 +31999,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K14" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L14" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M14" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N14" t="n">
         <v>488.0660966555615</v>
@@ -32014,22 +32014,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P14" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q14" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R14" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S14" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T14" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U14" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K15" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L15" t="n">
         <v>317.768591663394</v>
@@ -32087,28 +32087,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N15" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O15" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P15" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q15" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R15" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S15" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T15" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,28 +32148,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H16" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I16" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J16" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K16" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L16" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M16" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N16" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O16" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P16" t="n">
         <v>148.3953084420742</v>
@@ -32178,16 +32178,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R16" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S16" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T16" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H17" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I17" t="n">
         <v>105.4525839816936</v>
@@ -32236,13 +32236,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K17" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L17" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M17" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N17" t="n">
         <v>488.0660966555615</v>
@@ -32251,22 +32251,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P17" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q17" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R17" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S17" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T17" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U17" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K18" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L18" t="n">
         <v>317.768591663394</v>
@@ -32324,28 +32324,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N18" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O18" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P18" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q18" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R18" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S18" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T18" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,28 +32385,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H19" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I19" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J19" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K19" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L19" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M19" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N19" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O19" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P19" t="n">
         <v>148.3953084420742</v>
@@ -32415,16 +32415,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R19" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S19" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T19" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H20" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I20" t="n">
         <v>105.4525839816936</v>
@@ -32473,13 +32473,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K20" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L20" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M20" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N20" t="n">
         <v>488.0660966555615</v>
@@ -32488,22 +32488,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P20" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q20" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R20" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S20" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T20" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U20" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,7 +32552,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K21" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L21" t="n">
         <v>317.768591663394</v>
@@ -32561,28 +32561,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N21" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O21" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q21" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R21" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S21" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T21" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,28 +32622,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H22" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I22" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J22" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K22" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L22" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M22" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N22" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O22" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P22" t="n">
         <v>148.3953084420742</v>
@@ -32652,16 +32652,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R22" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S22" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T22" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H23" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I23" t="n">
         <v>105.4525839816936</v>
@@ -32710,13 +32710,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K23" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L23" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M23" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N23" t="n">
         <v>488.0660966555615</v>
@@ -32725,22 +32725,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P23" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q23" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R23" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S23" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T23" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U23" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K24" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L24" t="n">
         <v>317.768591663394</v>
@@ -32798,28 +32798,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N24" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O24" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P24" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q24" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R24" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S24" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T24" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,28 +32859,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H25" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I25" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J25" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K25" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L25" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M25" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N25" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O25" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P25" t="n">
         <v>148.3953084420742</v>
@@ -32889,16 +32889,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R25" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S25" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T25" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H29" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I29" t="n">
         <v>105.4525839816936</v>
@@ -33184,13 +33184,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K29" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L29" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M29" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N29" t="n">
         <v>488.0660966555615</v>
@@ -33199,22 +33199,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P29" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q29" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R29" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S29" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T29" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U29" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K30" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L30" t="n">
         <v>317.768591663394</v>
@@ -33272,28 +33272,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N30" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O30" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P30" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q30" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R30" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S30" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T30" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,28 +33333,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H31" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I31" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J31" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K31" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L31" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M31" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N31" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P31" t="n">
         <v>148.3953084420742</v>
@@ -33363,16 +33363,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R31" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S31" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T31" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H32" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I32" t="n">
         <v>105.4525839816936</v>
@@ -33421,13 +33421,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K32" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L32" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M32" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N32" t="n">
         <v>488.0660966555615</v>
@@ -33436,22 +33436,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P32" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q32" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R32" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S32" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T32" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U32" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K33" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L33" t="n">
         <v>317.768591663394</v>
@@ -33509,28 +33509,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N33" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O33" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P33" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q33" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R33" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S33" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T33" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,28 +33570,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H34" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I34" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J34" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K34" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L34" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M34" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N34" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O34" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P34" t="n">
         <v>148.3953084420742</v>
@@ -33600,16 +33600,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R34" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S34" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T34" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H35" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I35" t="n">
         <v>105.4525839816936</v>
@@ -33658,13 +33658,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K35" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L35" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M35" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N35" t="n">
         <v>488.0660966555615</v>
@@ -33673,22 +33673,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P35" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q35" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R35" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S35" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T35" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U35" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33737,7 +33737,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K36" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L36" t="n">
         <v>317.768591663394</v>
@@ -33746,28 +33746,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N36" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O36" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P36" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q36" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R36" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S36" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T36" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,28 +33807,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H37" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I37" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J37" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K37" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L37" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M37" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N37" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O37" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P37" t="n">
         <v>148.3953084420742</v>
@@ -33837,16 +33837,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R37" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S37" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T37" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H38" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I38" t="n">
         <v>105.4525839816936</v>
@@ -33895,13 +33895,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K38" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L38" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M38" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N38" t="n">
         <v>488.0660966555615</v>
@@ -33910,22 +33910,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P38" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q38" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R38" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S38" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T38" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U38" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K39" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L39" t="n">
         <v>317.768591663394</v>
@@ -33983,28 +33983,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N39" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O39" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P39" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q39" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R39" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S39" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T39" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,28 +34044,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H40" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I40" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J40" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K40" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L40" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M40" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N40" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O40" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P40" t="n">
         <v>148.3953084420742</v>
@@ -34074,16 +34074,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R40" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S40" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T40" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H41" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I41" t="n">
         <v>105.4525839816936</v>
@@ -34132,13 +34132,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K41" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L41" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M41" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N41" t="n">
         <v>488.0660966555615</v>
@@ -34147,22 +34147,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P41" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R41" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S41" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T41" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U41" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34211,7 +34211,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K42" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L42" t="n">
         <v>317.768591663394</v>
@@ -34220,28 +34220,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N42" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O42" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P42" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q42" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R42" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S42" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T42" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,28 +34281,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H43" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I43" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J43" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K43" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L43" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M43" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N43" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O43" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P43" t="n">
         <v>148.3953084420742</v>
@@ -34311,16 +34311,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R43" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S43" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T43" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>2.735298203273289</v>
       </c>
       <c r="H44" t="n">
-        <v>28.01287272427257</v>
+        <v>28.01287272427258</v>
       </c>
       <c r="I44" t="n">
         <v>105.4525839816936</v>
@@ -34369,13 +34369,13 @@
         <v>232.1550158800665</v>
       </c>
       <c r="K44" t="n">
-        <v>347.9401888246248</v>
+        <v>347.9401888246249</v>
       </c>
       <c r="L44" t="n">
-        <v>431.6505712130498</v>
+        <v>431.6505712130499</v>
       </c>
       <c r="M44" t="n">
-        <v>480.2944306355112</v>
+        <v>480.2944306355113</v>
       </c>
       <c r="N44" t="n">
         <v>488.0660966555615</v>
@@ -34384,22 +34384,22 @@
         <v>460.8669751467627</v>
       </c>
       <c r="P44" t="n">
-        <v>393.3393007534533</v>
+        <v>393.3393007534534</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.3814338487285</v>
+        <v>295.3814338487286</v>
       </c>
       <c r="R44" t="n">
         <v>171.8211757613659</v>
       </c>
       <c r="S44" t="n">
-        <v>62.33060780709013</v>
+        <v>62.33060780709014</v>
       </c>
       <c r="T44" t="n">
         <v>11.97376788482883</v>
       </c>
       <c r="U44" t="n">
-        <v>0.218823856261863</v>
+        <v>0.2188238562618631</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34448,7 +34448,7 @@
         <v>138.2699370370906</v>
       </c>
       <c r="K45" t="n">
-        <v>236.325345707932</v>
+        <v>236.3253457079321</v>
       </c>
       <c r="L45" t="n">
         <v>317.768591663394</v>
@@ -34457,28 +34457,28 @@
         <v>370.8209582950059</v>
       </c>
       <c r="N45" t="n">
-        <v>380.6354856488758</v>
+        <v>380.6354856488759</v>
       </c>
       <c r="O45" t="n">
         <v>348.2071061905693</v>
       </c>
       <c r="P45" t="n">
-        <v>279.4669011986839</v>
+        <v>279.466901198684</v>
       </c>
       <c r="Q45" t="n">
         <v>186.8162224375602</v>
       </c>
       <c r="R45" t="n">
-        <v>90.86621924223829</v>
+        <v>90.8662192422383</v>
       </c>
       <c r="S45" t="n">
         <v>27.18412252690582</v>
       </c>
       <c r="T45" t="n">
-        <v>5.898986682934227</v>
+        <v>5.898986682934228</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09628378699022141</v>
+        <v>0.09628378699022143</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,28 +34518,28 @@
         <v>1.226960607984679</v>
       </c>
       <c r="H46" t="n">
-        <v>10.90879522371833</v>
+        <v>10.90879522371834</v>
       </c>
       <c r="I46" t="n">
         <v>36.8980517383029</v>
       </c>
       <c r="J46" t="n">
-        <v>86.74611498451678</v>
+        <v>86.74611498451681</v>
       </c>
       <c r="K46" t="n">
         <v>142.550514273129</v>
       </c>
       <c r="L46" t="n">
-        <v>182.4155798452858</v>
+        <v>182.4155798452859</v>
       </c>
       <c r="M46" t="n">
-        <v>192.331652395271</v>
+        <v>192.3316523952711</v>
       </c>
       <c r="N46" t="n">
-        <v>187.7584355836919</v>
+        <v>187.758435583692</v>
       </c>
       <c r="O46" t="n">
-        <v>173.4253048449617</v>
+        <v>173.4253048449618</v>
       </c>
       <c r="P46" t="n">
         <v>148.3953084420742</v>
@@ -34548,16 +34548,16 @@
         <v>102.7412196376989</v>
       </c>
       <c r="R46" t="n">
-        <v>55.16861060992927</v>
+        <v>55.16861060992928</v>
       </c>
       <c r="S46" t="n">
         <v>21.38257714096935</v>
       </c>
       <c r="T46" t="n">
-        <v>5.242468052298172</v>
+        <v>5.242468052298173</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06692512407189165</v>
+        <v>0.06692512407189166</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K11" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L11" t="n">
-        <v>380.8384130360863</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M11" t="n">
-        <v>249.9481974082384</v>
+        <v>339.0399478222938</v>
       </c>
       <c r="N11" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O11" t="n">
         <v>230.768763725076</v>
       </c>
       <c r="P11" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q11" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R11" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L12" t="n">
-        <v>275.515029714544</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M12" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N12" t="n">
-        <v>652.505385926381</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O12" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P12" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q12" t="n">
         <v>256.9117360873878</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.64910510446279</v>
+        <v>57.64910510446276</v>
       </c>
       <c r="K13" t="n">
-        <v>184.543192683865</v>
+        <v>184.5431926838649</v>
       </c>
       <c r="L13" t="n">
-        <v>274.2677753422208</v>
+        <v>274.2677753422207</v>
       </c>
       <c r="M13" t="n">
         <v>296.1776995937304</v>
@@ -35583,10 +35583,10 @@
         <v>262.2726029956202</v>
       </c>
       <c r="P13" t="n">
-        <v>209.9360379435865</v>
+        <v>209.9360379435864</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262325</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K14" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L14" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M14" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082385</v>
       </c>
       <c r="N14" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O14" t="n">
-        <v>554.1275626192527</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P14" t="n">
-        <v>162.1063049981838</v>
+        <v>251.198055412239</v>
       </c>
       <c r="Q14" t="n">
-        <v>73.07574397427905</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K15" t="n">
-        <v>362.9491437461517</v>
+        <v>98.48390673357309</v>
       </c>
       <c r="L15" t="n">
-        <v>179.2142118835198</v>
+        <v>179.2142118835199</v>
       </c>
       <c r="M15" t="n">
-        <v>643.4505108439489</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N15" t="n">
         <v>652.505385926381</v>
       </c>
       <c r="O15" t="n">
-        <v>205.6108617461248</v>
+        <v>599.4731810228544</v>
       </c>
       <c r="P15" t="n">
         <v>145.4924937843537</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.9117360873878</v>
+        <v>118.4597787408046</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.64910510446279</v>
+        <v>57.64910510446282</v>
       </c>
       <c r="K16" t="n">
         <v>184.543192683865</v>
@@ -35823,7 +35823,7 @@
         <v>209.9360379435865</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.84134662262329</v>
+        <v>80.84134662262331</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.1091113533802</v>
+        <v>51.10911135338023</v>
       </c>
       <c r="K17" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L17" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M17" t="n">
-        <v>249.9481974082384</v>
+        <v>652.505385926381</v>
       </c>
       <c r="N17" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O17" t="n">
-        <v>491.3038337108878</v>
+        <v>230.768763725076</v>
       </c>
       <c r="P17" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.3907346341837</v>
+        <v>162.9739695223868</v>
       </c>
       <c r="R17" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L18" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M18" t="n">
-        <v>357.3590092613912</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N18" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O18" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P18" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q18" t="n">
         <v>256.9117360873878</v>
@@ -36048,10 +36048,10 @@
         <v>210.005605105602</v>
       </c>
       <c r="M19" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N19" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O19" t="n">
         <v>198.0104327590014</v>
@@ -36060,7 +36060,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K20" t="n">
-        <v>451.995750350809</v>
+        <v>127.8503377796443</v>
       </c>
       <c r="L20" t="n">
-        <v>195.8841562430626</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M20" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082385</v>
       </c>
       <c r="N20" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O20" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P20" t="n">
-        <v>483.9050131696664</v>
+        <v>194.5432867206584</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.496867984678</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L21" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M21" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N21" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O21" t="n">
-        <v>334.2829466345285</v>
+        <v>334.2829466345282</v>
       </c>
       <c r="P21" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q21" t="n">
         <v>256.9117360873878</v>
@@ -36285,10 +36285,10 @@
         <v>210.005605105602</v>
       </c>
       <c r="M22" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N22" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O22" t="n">
         <v>198.0104327590014</v>
@@ -36297,7 +36297,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600452</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>51.1091113533802</v>
+        <v>148.7628843264352</v>
       </c>
       <c r="K23" t="n">
-        <v>127.8503377796443</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L23" t="n">
-        <v>195.8841562430626</v>
+        <v>195.8841562430627</v>
       </c>
       <c r="M23" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082385</v>
       </c>
       <c r="N23" t="n">
-        <v>658.5001607829736</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O23" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P23" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q23" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R23" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>137.5233457108328</v>
       </c>
       <c r="K24" t="n">
-        <v>98.48390673357304</v>
+        <v>362.9491437461517</v>
       </c>
       <c r="L24" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M24" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N24" t="n">
-        <v>249.2937735655425</v>
+        <v>302.5663078171532</v>
       </c>
       <c r="O24" t="n">
-        <v>598.7481836471068</v>
+        <v>599.4731810228544</v>
       </c>
       <c r="P24" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843537</v>
       </c>
       <c r="Q24" t="n">
         <v>256.9117360873878</v>
@@ -36522,10 +36522,10 @@
         <v>210.005605105602</v>
       </c>
       <c r="M25" t="n">
-        <v>231.9155293571116</v>
+        <v>231.9155293571117</v>
       </c>
       <c r="N25" t="n">
-        <v>231.8906079629205</v>
+        <v>231.8906079629206</v>
       </c>
       <c r="O25" t="n">
         <v>198.0104327590014</v>
@@ -36534,7 +36534,7 @@
         <v>145.6738677069677</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.57917638600451</v>
+        <v>16.57917638600452</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.10911135338017</v>
+        <v>220.2057265254539</v>
       </c>
       <c r="K26" t="n">
         <v>451.995750350809</v>
@@ -36601,13 +36601,13 @@
         <v>613.545370793513</v>
       </c>
       <c r="M26" t="n">
-        <v>699.4617309010708</v>
+        <v>249.9481974082384</v>
       </c>
       <c r="N26" t="n">
         <v>695.9999574709545</v>
       </c>
       <c r="O26" t="n">
-        <v>347.7980312428027</v>
+        <v>606.2628917433459</v>
       </c>
       <c r="P26" t="n">
         <v>483.9050131696663</v>
@@ -36616,7 +36616,7 @@
         <v>285.3907346341837</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.95205782021614</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819541</v>
       </c>
       <c r="K28" t="n">
         <v>200.6453556275976</v>
@@ -36771,7 +36771,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q28" t="n">
-        <v>96.94350956635591</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K29" t="n">
-        <v>446.6896971063332</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L29" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M29" t="n">
-        <v>249.9481974082384</v>
+        <v>249.9481974082385</v>
       </c>
       <c r="N29" t="n">
-        <v>695.9999574709548</v>
+        <v>690.6939042264788</v>
       </c>
       <c r="O29" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P29" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q29" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R29" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L30" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M30" t="n">
-        <v>357.3590092613912</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N30" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O30" t="n">
-        <v>205.6108617461248</v>
+        <v>334.2829466345285</v>
       </c>
       <c r="P30" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q30" t="n">
         <v>256.9117360873878</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.75126804819544</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K31" t="n">
         <v>200.6453556275976</v>
@@ -37008,7 +37008,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q31" t="n">
-        <v>96.94350956635594</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>220.205726525454</v>
+        <v>183.0473543385951</v>
       </c>
       <c r="K32" t="n">
-        <v>414.8373781639518</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L32" t="n">
-        <v>195.8841562430626</v>
+        <v>195.8841562430627</v>
       </c>
       <c r="M32" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N32" t="n">
         <v>695.9999574709548</v>
       </c>
       <c r="O32" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P32" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q32" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R32" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L33" t="n">
-        <v>550.054557186979</v>
+        <v>517.8470363717663</v>
       </c>
       <c r="M33" t="n">
-        <v>357.3590092613912</v>
+        <v>228.6869243729876</v>
       </c>
       <c r="N33" t="n">
-        <v>249.2937735655425</v>
+        <v>728.6361479090961</v>
       </c>
       <c r="O33" t="n">
-        <v>205.6108617461248</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P33" t="n">
-        <v>463.9552624242908</v>
+        <v>145.4924937843537</v>
       </c>
       <c r="Q33" t="n">
         <v>256.9117360873878</v>
@@ -37245,7 +37245,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.94350956635591</v>
+        <v>96.9435095663559</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37306,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K35" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L35" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M35" t="n">
-        <v>625.4423254265079</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N35" t="n">
-        <v>695.9999574709548</v>
+        <v>263.1324285538618</v>
       </c>
       <c r="O35" t="n">
-        <v>230.768763725076</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P35" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q35" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R35" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37388,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L36" t="n">
-        <v>550.054557186979</v>
+        <v>213.0215783253826</v>
       </c>
       <c r="M36" t="n">
-        <v>228.6869243729876</v>
+        <v>694.3919881229875</v>
       </c>
       <c r="N36" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O36" t="n">
-        <v>334.2829466345285</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P36" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q36" t="n">
         <v>256.9117360873878</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.75126804819543</v>
+        <v>73.75126804819547</v>
       </c>
       <c r="K37" t="n">
         <v>200.6453556275976</v>
@@ -37470,10 +37470,10 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M37" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N37" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O37" t="n">
         <v>278.3747659393529</v>
@@ -37482,7 +37482,7 @@
         <v>226.0382008873191</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.94350956635593</v>
+        <v>96.94350956635596</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K38" t="n">
-        <v>434.5230880254856</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L38" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M38" t="n">
-        <v>699.461730901071</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N38" t="n">
-        <v>258.6530330589705</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O38" t="n">
-        <v>611.5689449878213</v>
+        <v>594.0962826624965</v>
       </c>
       <c r="P38" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q38" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R38" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L39" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M39" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N39" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O39" t="n">
-        <v>334.2829466345285</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P39" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q39" t="n">
         <v>256.9117360873878</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819546</v>
       </c>
       <c r="K40" t="n">
         <v>200.6453556275976</v>
@@ -37707,19 +37707,19 @@
         <v>290.3699382859534</v>
       </c>
       <c r="M40" t="n">
-        <v>312.279862537463</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N40" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O40" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P40" t="n">
         <v>226.0382008873191</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635594</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37780,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K41" t="n">
-        <v>451.995750350809</v>
+        <v>340.9269296051989</v>
       </c>
       <c r="L41" t="n">
-        <v>613.545370793513</v>
+        <v>613.5453707935131</v>
       </c>
       <c r="M41" t="n">
-        <v>249.9481974082384</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N41" t="n">
-        <v>690.6939042264795</v>
+        <v>695.9999574709548</v>
       </c>
       <c r="O41" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P41" t="n">
-        <v>483.9050131696664</v>
+        <v>162.1063049981838</v>
       </c>
       <c r="Q41" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R41" t="n">
-        <v>21.9520578202162</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37862,19 @@
         <v>362.9491437461517</v>
       </c>
       <c r="L42" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M42" t="n">
-        <v>228.6869243729876</v>
+        <v>357.3590092613912</v>
       </c>
       <c r="N42" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O42" t="n">
-        <v>334.2829466345285</v>
+        <v>205.6108617461249</v>
       </c>
       <c r="P42" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q42" t="n">
         <v>256.9117360873878</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819543</v>
       </c>
       <c r="K43" t="n">
         <v>200.6453556275976</v>
@@ -37950,13 +37950,13 @@
         <v>312.2549411432719</v>
       </c>
       <c r="O43" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P43" t="n">
-        <v>226.0382008873194</v>
+        <v>226.0382008873191</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635591</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>220.205726525454</v>
       </c>
       <c r="K44" t="n">
-        <v>451.995750350809</v>
+        <v>451.9957503508091</v>
       </c>
       <c r="L44" t="n">
-        <v>613.545370793513</v>
+        <v>596.0727084681882</v>
       </c>
       <c r="M44" t="n">
-        <v>249.9481974082384</v>
+        <v>699.4617309010711</v>
       </c>
       <c r="N44" t="n">
-        <v>690.6939042264795</v>
+        <v>258.6530330589706</v>
       </c>
       <c r="O44" t="n">
-        <v>611.5689449878213</v>
+        <v>611.5689449878214</v>
       </c>
       <c r="P44" t="n">
-        <v>483.9050131696664</v>
+        <v>483.9050131696665</v>
       </c>
       <c r="Q44" t="n">
-        <v>285.3907346341837</v>
+        <v>285.3907346341838</v>
       </c>
       <c r="R44" t="n">
-        <v>21.9520578202162</v>
+        <v>21.95205782021623</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.5233457108328</v>
+        <v>11.43231037042392</v>
       </c>
       <c r="K45" t="n">
-        <v>362.9491437461517</v>
+        <v>223.8499446982344</v>
       </c>
       <c r="L45" t="n">
-        <v>550.054557186979</v>
+        <v>550.0545571869791</v>
       </c>
       <c r="M45" t="n">
         <v>228.6869243729876</v>
       </c>
       <c r="N45" t="n">
-        <v>249.2937735655425</v>
+        <v>249.2937735655426</v>
       </c>
       <c r="O45" t="n">
-        <v>334.2829466345285</v>
+        <v>599.4731810228544</v>
       </c>
       <c r="P45" t="n">
-        <v>463.9552624242908</v>
+        <v>463.9552624242909</v>
       </c>
       <c r="Q45" t="n">
         <v>256.9117360873878</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.7512680481954</v>
+        <v>73.75126804819548</v>
       </c>
       <c r="K46" t="n">
         <v>200.6453556275976</v>
       </c>
       <c r="L46" t="n">
-        <v>290.3699382859534</v>
+        <v>290.3699382859535</v>
       </c>
       <c r="M46" t="n">
-        <v>312.2798625374634</v>
+        <v>312.2798625374631</v>
       </c>
       <c r="N46" t="n">
-        <v>312.2549411432719</v>
+        <v>312.254941143272</v>
       </c>
       <c r="O46" t="n">
-        <v>278.3747659393528</v>
+        <v>278.3747659393529</v>
       </c>
       <c r="P46" t="n">
-        <v>226.0382008873191</v>
+        <v>226.038200887318</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.9435095663559</v>
+        <v>96.94350956635597</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
